--- a/Documentacion/2 Planeacion/Diagrama de Gantt.xlsx
+++ b/Documentacion/2 Planeacion/Diagrama de Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe9f653e101caa57/ITI-901/Desarrollo de Aplicaciones Web/Parcial 1/Actividades/Act02/02_MEPPP/Proyecto/2 Planeacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MEPPP\Documentacion\2 Planeacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E82C40B1-F618-4848-9612-0FC6C21C21D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03D39A15-D9D3-4476-94BB-EC312FD79989}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{32F70B51-DA13-4D99-ADCA-7BEE63ACF8C6}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t xml:space="preserve">      Acta de inicio</t>
   </si>
@@ -37,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">      Plan de comunicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Póliticas de calidad</t>
   </si>
   <si>
     <t xml:space="preserve">      Declaración del alcance</t>
@@ -133,6 +131,45 @@
   </si>
   <si>
     <t xml:space="preserve">      Estudio de roles</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Invernadero</t>
+  </si>
+  <si>
+    <t>Campañas</t>
+  </si>
+  <si>
+    <t>Socios</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>¿Quiénes somos?</t>
+  </si>
+  <si>
+    <t>Adopciones</t>
+  </si>
+  <si>
+    <t>Invernaredo</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Pruebas de validación</t>
+  </si>
+  <si>
+    <t>Login/Registro</t>
+  </si>
+  <si>
+    <t>Perfil</t>
   </si>
 </sst>
 </file>
@@ -234,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -268,17 +305,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -322,19 +348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -351,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -363,51 +376,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -415,12 +405,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -439,29 +429,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,211 +812,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0B351D-7EB2-443C-BAE6-53DE46FDD100}">
-  <dimension ref="A1:CK1347"/>
+  <dimension ref="A1:CF1363"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="40" customWidth="1"/>
     <col min="2" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="6.7109375" style="1" customWidth="1"/>
     <col min="8" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" style="1" customWidth="1"/>
-    <col min="16" max="60" width="12.7109375" style="1" customWidth="1"/>
-    <col min="61" max="62" width="6.7109375" style="1" customWidth="1"/>
-    <col min="63" max="63" width="12.7109375" style="1" customWidth="1"/>
-    <col min="64" max="65" width="6.7109375" style="1" customWidth="1"/>
-    <col min="66" max="86" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="58" width="12.7109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="12" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="12.5703125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="6.140625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="7.140625" style="1" customWidth="1"/>
+    <col min="64" max="81" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15">
+    <row r="1" spans="1:84" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="12">
         <v>43234</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="9">
         <v>43235</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="10">
         <v>43236</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="13">
         <v>43237</v>
       </c>
-      <c r="F1" s="41">
+      <c r="F1" s="50">
         <v>43238</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="13">
+      <c r="G1" s="50"/>
+      <c r="H1" s="10">
         <v>43241</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="21">
         <v>43242</v>
       </c>
-      <c r="J1" s="41">
+      <c r="J1" s="30">
         <v>43243</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="13">
+      <c r="K1" s="10">
         <v>43244</v>
       </c>
-      <c r="M1" s="13">
+      <c r="L1" s="10">
         <v>43245</v>
       </c>
-      <c r="N1" s="41">
+      <c r="M1" s="30">
         <v>43248</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="13">
+      <c r="N1" s="10">
         <v>43249</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="O1" s="10">
         <v>43250</v>
       </c>
-      <c r="R1" s="13">
+      <c r="P1" s="10">
         <v>43251</v>
       </c>
-      <c r="S1" s="13">
+      <c r="Q1" s="10">
         <v>43252</v>
       </c>
-      <c r="T1" s="13">
+      <c r="R1" s="10">
         <v>43255</v>
       </c>
-      <c r="U1" s="13">
+      <c r="S1" s="10">
         <v>43256</v>
       </c>
-      <c r="V1" s="13">
+      <c r="T1" s="10">
         <v>43257</v>
       </c>
-      <c r="W1" s="13">
+      <c r="U1" s="10">
         <v>43258</v>
       </c>
-      <c r="X1" s="13">
+      <c r="V1" s="10">
         <v>43259</v>
       </c>
-      <c r="Y1" s="13">
+      <c r="W1" s="10">
         <v>43262</v>
       </c>
-      <c r="Z1" s="13">
+      <c r="X1" s="10">
         <v>43263</v>
       </c>
-      <c r="AA1" s="13">
+      <c r="Y1" s="10">
         <v>43264</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="Z1" s="10">
         <v>43265</v>
       </c>
-      <c r="AC1" s="13">
+      <c r="AA1" s="10">
         <v>43266</v>
       </c>
-      <c r="AD1" s="13">
+      <c r="AB1" s="10">
         <v>43269</v>
       </c>
-      <c r="AE1" s="13">
+      <c r="AC1" s="10">
         <v>43270</v>
       </c>
-      <c r="AF1" s="13">
+      <c r="AD1" s="10">
         <v>43271</v>
       </c>
-      <c r="AG1" s="13">
+      <c r="AE1" s="10">
         <v>43272</v>
       </c>
-      <c r="AH1" s="13">
+      <c r="AF1" s="10">
         <v>43273</v>
       </c>
-      <c r="AI1" s="13">
+      <c r="AG1" s="10">
         <v>43276</v>
       </c>
-      <c r="AJ1" s="13">
+      <c r="AH1" s="10">
         <v>43277</v>
       </c>
-      <c r="AK1" s="13">
+      <c r="AI1" s="10">
         <v>43278</v>
       </c>
-      <c r="AL1" s="13">
+      <c r="AJ1" s="10">
         <v>43279</v>
       </c>
-      <c r="AM1" s="13">
+      <c r="AK1" s="10">
         <v>43280</v>
       </c>
-      <c r="AN1" s="13">
+      <c r="AL1" s="10">
         <v>43283</v>
       </c>
-      <c r="AO1" s="13">
+      <c r="AM1" s="10">
         <v>43284</v>
       </c>
-      <c r="AP1" s="13">
+      <c r="AN1" s="10">
         <v>43285</v>
       </c>
-      <c r="AQ1" s="13">
+      <c r="AO1" s="10">
         <v>43286</v>
       </c>
-      <c r="AR1" s="13">
+      <c r="AP1" s="10">
         <v>43287</v>
       </c>
-      <c r="AS1" s="13">
+      <c r="AQ1" s="10">
         <v>43290</v>
       </c>
-      <c r="AT1" s="13">
+      <c r="AR1" s="10">
         <v>43291</v>
       </c>
-      <c r="AU1" s="13">
+      <c r="AS1" s="10">
         <v>43292</v>
       </c>
-      <c r="AV1" s="13">
+      <c r="AT1" s="10">
         <v>43293</v>
       </c>
-      <c r="AW1" s="13">
+      <c r="AU1" s="10">
         <v>43294</v>
       </c>
-      <c r="AX1" s="13">
+      <c r="AV1" s="10">
         <v>43297</v>
       </c>
-      <c r="AY1" s="13">
+      <c r="AW1" s="10">
         <v>43298</v>
       </c>
-      <c r="AZ1" s="13">
+      <c r="AX1" s="10">
         <v>43299</v>
       </c>
-      <c r="BA1" s="13">
+      <c r="AY1" s="10">
         <v>43300</v>
       </c>
-      <c r="BB1" s="13">
+      <c r="AZ1" s="10">
         <v>43301</v>
       </c>
-      <c r="BC1" s="13">
+      <c r="BA1" s="10">
         <v>43304</v>
       </c>
-      <c r="BD1" s="13">
+      <c r="BB1" s="10">
         <v>43305</v>
       </c>
-      <c r="BE1" s="13">
+      <c r="BC1" s="10">
         <v>43306</v>
       </c>
-      <c r="BF1" s="13">
+      <c r="BD1" s="10">
         <v>43307</v>
       </c>
-      <c r="BG1" s="13">
+      <c r="BE1" s="10">
         <v>43308</v>
       </c>
-      <c r="BH1" s="13">
+      <c r="BF1" s="10">
         <v>43311</v>
       </c>
-      <c r="BI1" s="41">
+      <c r="BG1" s="30">
         <v>43312</v>
       </c>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="13">
+      <c r="BH1" s="10">
         <v>43313</v>
       </c>
-      <c r="BL1" s="41">
+      <c r="BI1" s="46">
         <v>43314</v>
       </c>
-      <c r="BM1" s="42"/>
+      <c r="BJ1" s="48">
+        <v>43315</v>
+      </c>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
       <c r="BN1" s="3"/>
       <c r="BO1" s="3"/>
       <c r="BP1" s="3"/>
@@ -998,33 +1036,28 @@
       <c r="CA1" s="3"/>
       <c r="CB1" s="3"/>
       <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-    </row>
-    <row r="2" spans="1:89" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="19"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+    </row>
+    <row r="2" spans="1:84" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1068,13 +1101,13 @@
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
+      <c r="BG2" s="15"/>
       <c r="BH2" s="3"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="21"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
       <c r="BO2" s="3"/>
       <c r="BP2" s="3"/>
@@ -1091,17 +1124,12 @@
       <c r="CA2" s="3"/>
       <c r="CB2" s="3"/>
       <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-    </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1162,9 +1190,9 @@
       <c r="BH3" s="4"/>
       <c r="BI3" s="4"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
+      <c r="BK3" s="5"/>
       <c r="BL3" s="4"/>
-      <c r="BM3" s="16"/>
+      <c r="BM3" s="4"/>
       <c r="BN3" s="4"/>
       <c r="BO3" s="4"/>
       <c r="BP3" s="4"/>
@@ -1181,29 +1209,24 @@
       <c r="CA3" s="4"/>
       <c r="CB3" s="4"/>
       <c r="CC3" s="4"/>
-      <c r="CD3" s="4"/>
-      <c r="CE3" s="4"/>
-      <c r="CF3" s="4"/>
-      <c r="CG3" s="4"/>
-      <c r="CH3" s="4"/>
-      <c r="CI3" s="8"/>
-      <c r="CJ3" s="8"/>
-      <c r="CK3" s="8"/>
-    </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1255,9 +1278,9 @@
       <c r="BH4" s="4"/>
       <c r="BI4" s="4"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
+      <c r="BK4" s="5"/>
       <c r="BL4" s="4"/>
-      <c r="BM4" s="6"/>
+      <c r="BM4" s="4"/>
       <c r="BN4" s="4"/>
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
@@ -1274,29 +1297,24 @@
       <c r="CA4" s="4"/>
       <c r="CB4" s="4"/>
       <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="4"/>
-      <c r="CI4" s="8"/>
-      <c r="CJ4" s="8"/>
-      <c r="CK4" s="8"/>
-    </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+    </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1348,9 +1366,9 @@
       <c r="BH5" s="4"/>
       <c r="BI5" s="4"/>
       <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
+      <c r="BK5" s="5"/>
       <c r="BL5" s="4"/>
-      <c r="BM5" s="6"/>
+      <c r="BM5" s="4"/>
       <c r="BN5" s="4"/>
       <c r="BO5" s="4"/>
       <c r="BP5" s="4"/>
@@ -1367,29 +1385,18 @@
       <c r="CA5" s="4"/>
       <c r="CB5" s="4"/>
       <c r="CC5" s="4"/>
-      <c r="CD5" s="4"/>
-      <c r="CE5" s="4"/>
-      <c r="CF5" s="4"/>
-      <c r="CG5" s="4"/>
-      <c r="CH5" s="4"/>
-      <c r="CI5" s="8"/>
-      <c r="CJ5" s="8"/>
-      <c r="CK5" s="8"/>
-    </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>35</v>
+      <c r="CD5" s="7"/>
+      <c r="CE5" s="7"/>
+      <c r="CF5" s="7"/>
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="24"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1441,9 +1448,9 @@
       <c r="BH6" s="4"/>
       <c r="BI6" s="4"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
+      <c r="BK6" s="5"/>
       <c r="BL6" s="4"/>
-      <c r="BM6" s="6"/>
+      <c r="BM6" s="4"/>
       <c r="BN6" s="4"/>
       <c r="BO6" s="4"/>
       <c r="BP6" s="4"/>
@@ -1460,29 +1467,24 @@
       <c r="CA6" s="4"/>
       <c r="CB6" s="4"/>
       <c r="CC6" s="4"/>
-      <c r="CD6" s="4"/>
-      <c r="CE6" s="4"/>
-      <c r="CF6" s="4"/>
-      <c r="CG6" s="4"/>
-      <c r="CH6" s="4"/>
-      <c r="CI6" s="8"/>
-      <c r="CJ6" s="8"/>
-      <c r="CK6" s="8"/>
-    </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>6</v>
+      <c r="CD6" s="7"/>
+      <c r="CE6" s="7"/>
+      <c r="CF6" s="7"/>
+    </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1534,9 +1536,9 @@
       <c r="BH7" s="4"/>
       <c r="BI7" s="4"/>
       <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="BK7" s="5"/>
       <c r="BL7" s="4"/>
-      <c r="BM7" s="6"/>
+      <c r="BM7" s="4"/>
       <c r="BN7" s="4"/>
       <c r="BO7" s="4"/>
       <c r="BP7" s="4"/>
@@ -1553,29 +1555,24 @@
       <c r="CA7" s="4"/>
       <c r="CB7" s="4"/>
       <c r="CC7" s="4"/>
-      <c r="CD7" s="4"/>
-      <c r="CE7" s="4"/>
-      <c r="CF7" s="4"/>
-      <c r="CG7" s="4"/>
-      <c r="CH7" s="4"/>
-      <c r="CI7" s="8"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="8"/>
-    </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
+      <c r="CD7" s="7"/>
+      <c r="CE7" s="7"/>
+      <c r="CF7" s="7"/>
+    </row>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1627,9 +1624,9 @@
       <c r="BH8" s="4"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="BK8" s="5"/>
       <c r="BL8" s="4"/>
-      <c r="BM8" s="6"/>
+      <c r="BM8" s="4"/>
       <c r="BN8" s="4"/>
       <c r="BO8" s="4"/>
       <c r="BP8" s="4"/>
@@ -1646,29 +1643,24 @@
       <c r="CA8" s="4"/>
       <c r="CB8" s="4"/>
       <c r="CC8" s="4"/>
-      <c r="CD8" s="4"/>
-      <c r="CE8" s="4"/>
-      <c r="CF8" s="4"/>
-      <c r="CG8" s="4"/>
-      <c r="CH8" s="4"/>
-      <c r="CI8" s="8"/>
-      <c r="CJ8" s="8"/>
-      <c r="CK8" s="8"/>
-    </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="CD8" s="7"/>
+      <c r="CE8" s="7"/>
+      <c r="CF8" s="7"/>
+    </row>
+    <row r="9" spans="1:84" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1720,9 +1712,9 @@
       <c r="BH9" s="4"/>
       <c r="BI9" s="4"/>
       <c r="BJ9" s="4"/>
-      <c r="BK9" s="4"/>
+      <c r="BK9" s="5"/>
       <c r="BL9" s="4"/>
-      <c r="BM9" s="6"/>
+      <c r="BM9" s="4"/>
       <c r="BN9" s="4"/>
       <c r="BO9" s="4"/>
       <c r="BP9" s="4"/>
@@ -1739,29 +1731,24 @@
       <c r="CA9" s="4"/>
       <c r="CB9" s="4"/>
       <c r="CC9" s="4"/>
-      <c r="CD9" s="4"/>
-      <c r="CE9" s="4"/>
-      <c r="CF9" s="4"/>
-      <c r="CG9" s="4"/>
-      <c r="CH9" s="4"/>
-      <c r="CI9" s="8"/>
-      <c r="CJ9" s="8"/>
-      <c r="CK9" s="8"/>
-    </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="CD9" s="7"/>
+      <c r="CE9" s="7"/>
+      <c r="CF9" s="7"/>
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="4"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1813,9 +1800,9 @@
       <c r="BH10" s="4"/>
       <c r="BI10" s="4"/>
       <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
+      <c r="BK10" s="5"/>
       <c r="BL10" s="4"/>
-      <c r="BM10" s="6"/>
+      <c r="BM10" s="4"/>
       <c r="BN10" s="4"/>
       <c r="BO10" s="4"/>
       <c r="BP10" s="4"/>
@@ -1832,35 +1819,30 @@
       <c r="CA10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CC10" s="4"/>
-      <c r="CD10" s="4"/>
-      <c r="CE10" s="4"/>
-      <c r="CF10" s="4"/>
-      <c r="CG10" s="4"/>
-      <c r="CH10" s="4"/>
-      <c r="CI10" s="8"/>
-      <c r="CJ10" s="8"/>
-      <c r="CK10" s="8"/>
-    </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
+      <c r="CD10" s="7"/>
+      <c r="CE10" s="7"/>
+      <c r="CF10" s="7"/>
+    </row>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1906,9 +1888,9 @@
       <c r="BH11" s="4"/>
       <c r="BI11" s="4"/>
       <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
+      <c r="BK11" s="5"/>
       <c r="BL11" s="4"/>
-      <c r="BM11" s="6"/>
+      <c r="BM11" s="4"/>
       <c r="BN11" s="4"/>
       <c r="BO11" s="4"/>
       <c r="BP11" s="4"/>
@@ -1925,35 +1907,30 @@
       <c r="CA11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CC11" s="4"/>
-      <c r="CD11" s="4"/>
-      <c r="CE11" s="4"/>
-      <c r="CF11" s="4"/>
-      <c r="CG11" s="4"/>
-      <c r="CH11" s="4"/>
-      <c r="CI11" s="8"/>
-      <c r="CJ11" s="8"/>
-      <c r="CK11" s="8"/>
-    </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>29</v>
+      <c r="CD11" s="7"/>
+      <c r="CE11" s="7"/>
+      <c r="CF11" s="7"/>
+    </row>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -1967,7 +1944,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
+      <c r="AE12" s="11"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
@@ -1999,9 +1976,9 @@
       <c r="BH12" s="4"/>
       <c r="BI12" s="4"/>
       <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
+      <c r="BK12" s="5"/>
       <c r="BL12" s="4"/>
-      <c r="BM12" s="6"/>
+      <c r="BM12" s="4"/>
       <c r="BN12" s="4"/>
       <c r="BO12" s="4"/>
       <c r="BP12" s="4"/>
@@ -2018,17 +1995,12 @@
       <c r="CA12" s="4"/>
       <c r="CB12" s="4"/>
       <c r="CC12" s="4"/>
-      <c r="CD12" s="4"/>
-      <c r="CE12" s="4"/>
-      <c r="CF12" s="4"/>
-      <c r="CG12" s="4"/>
-      <c r="CH12" s="4"/>
-      <c r="CI12" s="8"/>
-      <c r="CJ12" s="8"/>
-      <c r="CK12" s="8"/>
-    </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="CD12" s="7"/>
+      <c r="CE12" s="7"/>
+      <c r="CF12" s="7"/>
+    </row>
+    <row r="13" spans="1:84" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4"/>
@@ -2036,13 +2008,12 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2061,7 +2032,7 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="14"/>
+      <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -2092,9 +2063,9 @@
       <c r="BH13" s="4"/>
       <c r="BI13" s="4"/>
       <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
+      <c r="BK13" s="5"/>
       <c r="BL13" s="4"/>
-      <c r="BM13" s="6"/>
+      <c r="BM13" s="4"/>
       <c r="BN13" s="4"/>
       <c r="BO13" s="4"/>
       <c r="BP13" s="4"/>
@@ -2111,17 +2082,12 @@
       <c r="CA13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
-      <c r="CD13" s="4"/>
-      <c r="CE13" s="4"/>
-      <c r="CF13" s="4"/>
-      <c r="CG13" s="4"/>
-      <c r="CH13" s="4"/>
-      <c r="CI13" s="8"/>
-      <c r="CJ13" s="8"/>
-      <c r="CK13" s="8"/>
-    </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="CD13" s="7"/>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="7"/>
+    </row>
+    <row r="14" spans="1:84" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="4"/>
@@ -2133,10 +2099,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="14"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -2185,9 +2150,9 @@
       <c r="BH14" s="4"/>
       <c r="BI14" s="4"/>
       <c r="BJ14" s="4"/>
-      <c r="BK14" s="4"/>
+      <c r="BK14" s="5"/>
       <c r="BL14" s="4"/>
-      <c r="BM14" s="6"/>
+      <c r="BM14" s="4"/>
       <c r="BN14" s="4"/>
       <c r="BO14" s="4"/>
       <c r="BP14" s="4"/>
@@ -2204,17 +2169,12 @@
       <c r="CA14" s="4"/>
       <c r="CB14" s="4"/>
       <c r="CC14" s="4"/>
-      <c r="CD14" s="4"/>
-      <c r="CE14" s="4"/>
-      <c r="CF14" s="4"/>
-      <c r="CG14" s="4"/>
-      <c r="CH14" s="4"/>
-      <c r="CI14" s="8"/>
-      <c r="CJ14" s="8"/>
-      <c r="CK14" s="8"/>
-    </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="CD14" s="7"/>
+      <c r="CE14" s="7"/>
+      <c r="CF14" s="7"/>
+    </row>
+    <row r="15" spans="1:84" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="4"/>
@@ -2226,11 +2186,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="4"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2278,9 +2237,9 @@
       <c r="BH15" s="4"/>
       <c r="BI15" s="4"/>
       <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
+      <c r="BK15" s="5"/>
       <c r="BL15" s="4"/>
-      <c r="BM15" s="6"/>
+      <c r="BM15" s="4"/>
       <c r="BN15" s="4"/>
       <c r="BO15" s="4"/>
       <c r="BP15" s="4"/>
@@ -2297,17 +2256,12 @@
       <c r="CA15" s="4"/>
       <c r="CB15" s="4"/>
       <c r="CC15" s="4"/>
-      <c r="CD15" s="4"/>
-      <c r="CE15" s="4"/>
-      <c r="CF15" s="4"/>
-      <c r="CG15" s="4"/>
-      <c r="CH15" s="4"/>
-      <c r="CI15" s="8"/>
-      <c r="CJ15" s="8"/>
-      <c r="CK15" s="8"/>
-    </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="CD15" s="7"/>
+      <c r="CE15" s="7"/>
+      <c r="CF15" s="7"/>
+    </row>
+    <row r="16" spans="1:84" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4"/>
@@ -2319,13 +2273,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -2371,9 +2324,9 @@
       <c r="BH16" s="4"/>
       <c r="BI16" s="4"/>
       <c r="BJ16" s="4"/>
-      <c r="BK16" s="4"/>
+      <c r="BK16" s="5"/>
       <c r="BL16" s="4"/>
-      <c r="BM16" s="6"/>
+      <c r="BM16" s="4"/>
       <c r="BN16" s="4"/>
       <c r="BO16" s="4"/>
       <c r="BP16" s="4"/>
@@ -2390,18 +2343,13 @@
       <c r="CA16" s="4"/>
       <c r="CB16" s="4"/>
       <c r="CC16" s="4"/>
-      <c r="CD16" s="4"/>
-      <c r="CE16" s="4"/>
-      <c r="CF16" s="4"/>
-      <c r="CG16" s="4"/>
-      <c r="CH16" s="4"/>
-      <c r="CI16" s="8"/>
-      <c r="CJ16" s="8"/>
-      <c r="CK16" s="8"/>
-    </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>11</v>
+      <c r="CD16" s="7"/>
+      <c r="CE16" s="7"/>
+      <c r="CF16" s="7"/>
+    </row>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2412,20 +2360,19 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
@@ -2464,9 +2411,9 @@
       <c r="BH17" s="4"/>
       <c r="BI17" s="4"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
+      <c r="BK17" s="5"/>
       <c r="BL17" s="4"/>
-      <c r="BM17" s="6"/>
+      <c r="BM17" s="4"/>
       <c r="BN17" s="4"/>
       <c r="BO17" s="4"/>
       <c r="BP17" s="4"/>
@@ -2483,18 +2430,13 @@
       <c r="CA17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CC17" s="4"/>
-      <c r="CD17" s="4"/>
-      <c r="CE17" s="4"/>
-      <c r="CF17" s="4"/>
-      <c r="CG17" s="4"/>
-      <c r="CH17" s="4"/>
-      <c r="CI17" s="8"/>
-      <c r="CJ17" s="8"/>
-      <c r="CK17" s="8"/>
-    </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>30</v>
+      <c r="CD17" s="7"/>
+      <c r="CE17" s="7"/>
+      <c r="CF17" s="7"/>
+    </row>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2505,20 +2447,19 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
@@ -2557,9 +2498,9 @@
       <c r="BH18" s="4"/>
       <c r="BI18" s="4"/>
       <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
+      <c r="BK18" s="5"/>
       <c r="BL18" s="4"/>
-      <c r="BM18" s="6"/>
+      <c r="BM18" s="4"/>
       <c r="BN18" s="4"/>
       <c r="BO18" s="4"/>
       <c r="BP18" s="4"/>
@@ -2576,17 +2517,12 @@
       <c r="CA18" s="4"/>
       <c r="CB18" s="4"/>
       <c r="CC18" s="4"/>
-      <c r="CD18" s="4"/>
-      <c r="CE18" s="4"/>
-      <c r="CF18" s="4"/>
-      <c r="CG18" s="4"/>
-      <c r="CH18" s="4"/>
-      <c r="CI18" s="8"/>
-      <c r="CJ18" s="8"/>
-      <c r="CK18" s="8"/>
-    </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+    </row>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="4"/>
@@ -2598,17 +2534,16 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -2650,9 +2585,9 @@
       <c r="BH19" s="4"/>
       <c r="BI19" s="4"/>
       <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
+      <c r="BK19" s="5"/>
       <c r="BL19" s="4"/>
-      <c r="BM19" s="6"/>
+      <c r="BM19" s="4"/>
       <c r="BN19" s="4"/>
       <c r="BO19" s="4"/>
       <c r="BP19" s="4"/>
@@ -2669,17 +2604,12 @@
       <c r="CA19" s="4"/>
       <c r="CB19" s="4"/>
       <c r="CC19" s="4"/>
-      <c r="CD19" s="4"/>
-      <c r="CE19" s="4"/>
-      <c r="CF19" s="4"/>
-      <c r="CG19" s="4"/>
-      <c r="CH19" s="4"/>
-      <c r="CI19" s="8"/>
-      <c r="CJ19" s="8"/>
-      <c r="CK19" s="8"/>
-    </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+    </row>
+    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="4"/>
@@ -2691,7 +2621,6 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2700,9 +2629,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="26"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -2743,9 +2672,9 @@
       <c r="BH20" s="4"/>
       <c r="BI20" s="4"/>
       <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
+      <c r="BK20" s="5"/>
       <c r="BL20" s="4"/>
-      <c r="BM20" s="6"/>
+      <c r="BM20" s="4"/>
       <c r="BN20" s="4"/>
       <c r="BO20" s="4"/>
       <c r="BP20" s="4"/>
@@ -2762,17 +2691,12 @@
       <c r="CA20" s="4"/>
       <c r="CB20" s="4"/>
       <c r="CC20" s="4"/>
-      <c r="CD20" s="4"/>
-      <c r="CE20" s="4"/>
-      <c r="CF20" s="4"/>
-      <c r="CG20" s="4"/>
-      <c r="CH20" s="4"/>
-      <c r="CI20" s="8"/>
-      <c r="CJ20" s="8"/>
-      <c r="CK20" s="8"/>
-    </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="CD20" s="7"/>
+      <c r="CE20" s="7"/>
+      <c r="CF20" s="7"/>
+    </row>
+    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="4"/>
@@ -2784,7 +2708,6 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2795,9 +2718,9 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
@@ -2836,9 +2759,9 @@
       <c r="BH21" s="4"/>
       <c r="BI21" s="4"/>
       <c r="BJ21" s="4"/>
-      <c r="BK21" s="4"/>
+      <c r="BK21" s="5"/>
       <c r="BL21" s="4"/>
-      <c r="BM21" s="6"/>
+      <c r="BM21" s="4"/>
       <c r="BN21" s="4"/>
       <c r="BO21" s="4"/>
       <c r="BP21" s="4"/>
@@ -2855,18 +2778,13 @@
       <c r="CA21" s="4"/>
       <c r="CB21" s="4"/>
       <c r="CC21" s="4"/>
-      <c r="CD21" s="4"/>
-      <c r="CE21" s="4"/>
-      <c r="CF21" s="4"/>
-      <c r="CG21" s="4"/>
-      <c r="CH21" s="4"/>
-      <c r="CI21" s="8"/>
-      <c r="CJ21" s="8"/>
-      <c r="CK21" s="8"/>
-    </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>15</v>
+      <c r="CD21" s="7"/>
+      <c r="CE21" s="7"/>
+      <c r="CF21" s="7"/>
+    </row>
+    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2877,7 +2795,6 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2888,34 +2805,34 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
@@ -2929,9 +2846,9 @@
       <c r="BH22" s="4"/>
       <c r="BI22" s="4"/>
       <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
+      <c r="BK22" s="5"/>
       <c r="BL22" s="4"/>
-      <c r="BM22" s="6"/>
+      <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
       <c r="BO22" s="4"/>
       <c r="BP22" s="4"/>
@@ -2948,18 +2865,13 @@
       <c r="CA22" s="4"/>
       <c r="CB22" s="4"/>
       <c r="CC22" s="4"/>
-      <c r="CD22" s="4"/>
-      <c r="CE22" s="4"/>
-      <c r="CF22" s="4"/>
-      <c r="CG22" s="4"/>
-      <c r="CH22" s="4"/>
-      <c r="CI22" s="8"/>
-      <c r="CJ22" s="8"/>
-      <c r="CK22" s="8"/>
-    </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>31</v>
+      <c r="CD22" s="7"/>
+      <c r="CE22" s="7"/>
+      <c r="CF22" s="7"/>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2970,7 +2882,6 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2982,31 +2893,31 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
@@ -3022,9 +2933,9 @@
       <c r="BH23" s="4"/>
       <c r="BI23" s="4"/>
       <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
+      <c r="BK23" s="5"/>
       <c r="BL23" s="4"/>
-      <c r="BM23" s="6"/>
+      <c r="BM23" s="4"/>
       <c r="BN23" s="4"/>
       <c r="BO23" s="4"/>
       <c r="BP23" s="4"/>
@@ -3041,17 +2952,12 @@
       <c r="CA23" s="4"/>
       <c r="CB23" s="4"/>
       <c r="CC23" s="4"/>
-      <c r="CD23" s="4"/>
-      <c r="CE23" s="4"/>
-      <c r="CF23" s="4"/>
-      <c r="CG23" s="4"/>
-      <c r="CH23" s="4"/>
-      <c r="CI23" s="8"/>
-      <c r="CJ23" s="8"/>
-      <c r="CK23" s="8"/>
-    </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="CD23" s="7"/>
+      <c r="CE23" s="7"/>
+      <c r="CF23" s="7"/>
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="4"/>
@@ -3063,7 +2969,6 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -3076,11 +2981,11 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
@@ -3115,9 +3020,9 @@
       <c r="BH24" s="4"/>
       <c r="BI24" s="4"/>
       <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
+      <c r="BK24" s="5"/>
       <c r="BL24" s="4"/>
-      <c r="BM24" s="6"/>
+      <c r="BM24" s="4"/>
       <c r="BN24" s="4"/>
       <c r="BO24" s="4"/>
       <c r="BP24" s="4"/>
@@ -3134,17 +3039,12 @@
       <c r="CA24" s="4"/>
       <c r="CB24" s="4"/>
       <c r="CC24" s="4"/>
-      <c r="CD24" s="4"/>
-      <c r="CE24" s="4"/>
-      <c r="CF24" s="4"/>
-      <c r="CG24" s="4"/>
-      <c r="CH24" s="4"/>
-      <c r="CI24" s="8"/>
-      <c r="CJ24" s="8"/>
-      <c r="CK24" s="8"/>
-    </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="CD24" s="7"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+    </row>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="4"/>
@@ -3156,7 +3056,6 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -3170,20 +3069,20 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
@@ -3208,9 +3107,9 @@
       <c r="BH25" s="4"/>
       <c r="BI25" s="4"/>
       <c r="BJ25" s="4"/>
-      <c r="BK25" s="4"/>
+      <c r="BK25" s="5"/>
       <c r="BL25" s="4"/>
-      <c r="BM25" s="6"/>
+      <c r="BM25" s="4"/>
       <c r="BN25" s="4"/>
       <c r="BO25" s="4"/>
       <c r="BP25" s="4"/>
@@ -3227,18 +3126,13 @@
       <c r="CA25" s="4"/>
       <c r="CB25" s="4"/>
       <c r="CC25" s="4"/>
-      <c r="CD25" s="4"/>
-      <c r="CE25" s="4"/>
-      <c r="CF25" s="4"/>
-      <c r="CG25" s="4"/>
-      <c r="CH25" s="4"/>
-      <c r="CI25" s="8"/>
-      <c r="CJ25" s="8"/>
-      <c r="CK25" s="8"/>
-    </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>18</v>
+      <c r="CD25" s="7"/>
+      <c r="CE25" s="7"/>
+      <c r="CF25" s="7"/>
+    </row>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3249,7 +3143,6 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3265,19 +3158,19 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
@@ -3301,9 +3194,9 @@
       <c r="BH26" s="4"/>
       <c r="BI26" s="4"/>
       <c r="BJ26" s="4"/>
-      <c r="BK26" s="4"/>
+      <c r="BK26" s="5"/>
       <c r="BL26" s="4"/>
-      <c r="BM26" s="6"/>
+      <c r="BM26" s="4"/>
       <c r="BN26" s="4"/>
       <c r="BO26" s="4"/>
       <c r="BP26" s="4"/>
@@ -3320,18 +3213,13 @@
       <c r="CA26" s="4"/>
       <c r="CB26" s="4"/>
       <c r="CC26" s="4"/>
-      <c r="CD26" s="4"/>
-      <c r="CE26" s="4"/>
-      <c r="CF26" s="4"/>
-      <c r="CG26" s="4"/>
-      <c r="CH26" s="4"/>
-      <c r="CI26" s="8"/>
-      <c r="CJ26" s="8"/>
-      <c r="CK26" s="8"/>
-    </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>19</v>
+      <c r="CD26" s="7"/>
+      <c r="CE26" s="7"/>
+      <c r="CF26" s="7"/>
+    </row>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3342,7 +3230,6 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3362,25 +3249,25 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
       <c r="AZ27" s="4"/>
@@ -3394,9 +3281,9 @@
       <c r="BH27" s="4"/>
       <c r="BI27" s="4"/>
       <c r="BJ27" s="4"/>
-      <c r="BK27" s="4"/>
+      <c r="BK27" s="5"/>
       <c r="BL27" s="4"/>
-      <c r="BM27" s="6"/>
+      <c r="BM27" s="4"/>
       <c r="BN27" s="4"/>
       <c r="BO27" s="4"/>
       <c r="BP27" s="4"/>
@@ -3413,18 +3300,13 @@
       <c r="CA27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
-      <c r="CD27" s="4"/>
-      <c r="CE27" s="4"/>
-      <c r="CF27" s="4"/>
-      <c r="CG27" s="4"/>
-      <c r="CH27" s="4"/>
-      <c r="CI27" s="8"/>
-      <c r="CJ27" s="8"/>
-      <c r="CK27" s="8"/>
-    </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>32</v>
+      <c r="CD27" s="7"/>
+      <c r="CE27" s="7"/>
+      <c r="CF27" s="7"/>
+    </row>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3454,42 +3336,28 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="14"/>
-      <c r="AS28" s="14"/>
-      <c r="AT28" s="14"/>
-      <c r="AU28" s="14"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="43"/>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="43"/>
-      <c r="BA28" s="43"/>
-      <c r="BB28" s="43"/>
-      <c r="BC28" s="43"/>
-      <c r="BD28" s="43"/>
-      <c r="BE28" s="43"/>
-      <c r="BF28" s="43"/>
-      <c r="BG28" s="43"/>
-      <c r="BH28" s="43"/>
-      <c r="BI28" s="43"/>
-      <c r="BJ28" s="43"/>
-      <c r="BK28" s="43"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="BJ28" s="4"/>
+      <c r="BK28" s="5"/>
       <c r="BL28" s="4"/>
-      <c r="BM28" s="6"/>
+      <c r="BM28" s="4"/>
       <c r="BN28" s="4"/>
       <c r="BO28" s="4"/>
       <c r="BP28" s="4"/>
@@ -3506,18 +3374,13 @@
       <c r="CA28" s="4"/>
       <c r="CB28" s="4"/>
       <c r="CC28" s="4"/>
-      <c r="CD28" s="4"/>
-      <c r="CE28" s="4"/>
-      <c r="CF28" s="4"/>
-      <c r="CG28" s="4"/>
-      <c r="CH28" s="4"/>
-      <c r="CI28" s="8"/>
-      <c r="CJ28" s="8"/>
-      <c r="CK28" s="8"/>
-    </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>20</v>
+      <c r="CD28" s="7"/>
+      <c r="CE28" s="7"/>
+      <c r="CF28" s="7"/>
+    </row>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3546,43 +3409,29 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="43"/>
-      <c r="AW29" s="43"/>
-      <c r="AX29" s="43"/>
-      <c r="AY29" s="43"/>
-      <c r="AZ29" s="43"/>
-      <c r="BA29" s="43"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="14"/>
-      <c r="BD29" s="4"/>
-      <c r="BE29" s="4"/>
-      <c r="BF29" s="4"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="4"/>
-      <c r="BI29" s="4"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
       <c r="BJ29" s="4"/>
-      <c r="BK29" s="4"/>
+      <c r="BK29" s="5"/>
       <c r="BL29" s="4"/>
-      <c r="BM29" s="6"/>
+      <c r="BM29" s="4"/>
       <c r="BN29" s="4"/>
       <c r="BO29" s="4"/>
       <c r="BP29" s="4"/>
@@ -3599,18 +3448,13 @@
       <c r="CA29" s="4"/>
       <c r="CB29" s="4"/>
       <c r="CC29" s="4"/>
-      <c r="CD29" s="4"/>
-      <c r="CE29" s="4"/>
-      <c r="CF29" s="4"/>
-      <c r="CG29" s="4"/>
-      <c r="CH29" s="4"/>
-      <c r="CI29" s="8"/>
-      <c r="CJ29" s="8"/>
-      <c r="CK29" s="8"/>
-    </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>21</v>
+      <c r="CD29" s="7"/>
+      <c r="CE29" s="7"/>
+      <c r="CF29" s="7"/>
+    </row>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3639,8 +3483,8 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
@@ -3656,26 +3500,10 @@
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="4"/>
-      <c r="AY30" s="4"/>
-      <c r="AZ30" s="4"/>
-      <c r="BA30" s="4"/>
-      <c r="BB30" s="43"/>
-      <c r="BC30" s="43"/>
-      <c r="BD30" s="43"/>
-      <c r="BE30" s="43"/>
-      <c r="BF30" s="43"/>
-      <c r="BG30" s="43"/>
-      <c r="BH30" s="14"/>
-      <c r="BI30" s="14"/>
-      <c r="BJ30" s="14"/>
-      <c r="BK30" s="4"/>
+      <c r="BJ30" s="4"/>
+      <c r="BK30" s="5"/>
       <c r="BL30" s="4"/>
-      <c r="BM30" s="6"/>
+      <c r="BM30" s="4"/>
       <c r="BN30" s="4"/>
       <c r="BO30" s="4"/>
       <c r="BP30" s="4"/>
@@ -3692,111 +3520,85 @@
       <c r="CA30" s="4"/>
       <c r="CB30" s="4"/>
       <c r="CC30" s="4"/>
-      <c r="CD30" s="4"/>
-      <c r="CE30" s="4"/>
-      <c r="CF30" s="4"/>
-      <c r="CG30" s="4"/>
-      <c r="CH30" s="4"/>
-      <c r="CI30" s="8"/>
-      <c r="CJ30" s="8"/>
-      <c r="CK30" s="8"/>
-    </row>
-    <row r="31" spans="1:89" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="CD30" s="7"/>
+      <c r="CE30" s="7"/>
+      <c r="CF30" s="7"/>
+    </row>
+    <row r="31" spans="1:84" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="25"/>
-      <c r="AP31" s="25"/>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="25"/>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="25"/>
-      <c r="AU31" s="25"/>
-      <c r="AV31" s="25"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="25"/>
-      <c r="AY31" s="25"/>
-      <c r="AZ31" s="25"/>
-      <c r="BA31" s="25"/>
-      <c r="BB31" s="26"/>
-      <c r="BC31" s="26"/>
-      <c r="BD31" s="26"/>
-      <c r="BE31" s="26"/>
-      <c r="BF31" s="26"/>
-      <c r="BG31" s="26"/>
-      <c r="BH31" s="44"/>
-      <c r="BI31" s="44"/>
-      <c r="BJ31" s="44"/>
-      <c r="BK31" s="44"/>
-      <c r="BL31" s="25"/>
-      <c r="BM31" s="27"/>
-      <c r="BN31" s="25"/>
-      <c r="BO31" s="25"/>
-      <c r="BP31" s="25"/>
-      <c r="BQ31" s="25"/>
-      <c r="BR31" s="25"/>
-      <c r="BS31" s="25"/>
-      <c r="BT31" s="25"/>
-      <c r="BU31" s="25"/>
-      <c r="BV31" s="25"/>
-      <c r="BW31" s="25"/>
-      <c r="BX31" s="25"/>
-      <c r="BY31" s="25"/>
-      <c r="BZ31" s="25"/>
-      <c r="CA31" s="25"/>
-      <c r="CB31" s="25"/>
-      <c r="CC31" s="25"/>
-      <c r="CD31" s="25"/>
-      <c r="CE31" s="25"/>
-      <c r="CF31" s="25"/>
-      <c r="CG31" s="25"/>
-      <c r="CH31" s="25"/>
-      <c r="CI31" s="28"/>
-      <c r="CJ31" s="28"/>
-      <c r="CK31" s="28"/>
-    </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>22</v>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="16"/>
+      <c r="AO31" s="16"/>
+      <c r="AP31" s="16"/>
+      <c r="AQ31" s="16"/>
+      <c r="AR31" s="16"/>
+      <c r="AS31" s="16"/>
+      <c r="BJ31" s="16"/>
+      <c r="BK31" s="18"/>
+      <c r="BL31" s="16"/>
+      <c r="BM31" s="16"/>
+      <c r="BN31" s="16"/>
+      <c r="BO31" s="16"/>
+      <c r="BP31" s="16"/>
+      <c r="BQ31" s="16"/>
+      <c r="BR31" s="16"/>
+      <c r="BS31" s="16"/>
+      <c r="BT31" s="16"/>
+      <c r="BU31" s="16"/>
+      <c r="BV31" s="16"/>
+      <c r="BW31" s="16"/>
+      <c r="BX31" s="16"/>
+      <c r="BY31" s="16"/>
+      <c r="BZ31" s="16"/>
+      <c r="CA31" s="16"/>
+      <c r="CB31" s="16"/>
+      <c r="CC31" s="16"/>
+      <c r="CD31" s="19"/>
+      <c r="CE31" s="19"/>
+      <c r="CF31" s="19"/>
+    </row>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3827,8 +3629,8 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
@@ -3842,26 +3644,10 @@
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
       <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="4"/>
-      <c r="AY32" s="4"/>
-      <c r="AZ32" s="4"/>
-      <c r="BA32" s="4"/>
-      <c r="BB32" s="4"/>
-      <c r="BC32" s="4"/>
-      <c r="BD32" s="4"/>
-      <c r="BE32" s="4"/>
-      <c r="BF32" s="4"/>
-      <c r="BG32" s="4"/>
-      <c r="BH32" s="43"/>
-      <c r="BI32" s="4"/>
       <c r="BJ32" s="4"/>
-      <c r="BK32" s="14"/>
-      <c r="BL32" s="14"/>
-      <c r="BM32" s="6"/>
+      <c r="BK32" s="5"/>
+      <c r="BL32" s="4"/>
+      <c r="BM32" s="4"/>
       <c r="BN32" s="4"/>
       <c r="BO32" s="4"/>
       <c r="BP32" s="4"/>
@@ -3878,25 +3664,20 @@
       <c r="CA32" s="4"/>
       <c r="CB32" s="4"/>
       <c r="CC32" s="4"/>
-      <c r="CD32" s="4"/>
-      <c r="CE32" s="4"/>
-      <c r="CF32" s="4"/>
-      <c r="CG32" s="4"/>
-      <c r="CH32" s="4"/>
-      <c r="CI32" s="8"/>
-      <c r="CJ32" s="8"/>
-      <c r="CK32" s="8"/>
-    </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>23</v>
+      <c r="CD32" s="7"/>
+      <c r="CE32" s="7"/>
+      <c r="CF32" s="7"/>
+    </row>
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3920,8 +3701,8 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
@@ -3935,26 +3716,10 @@
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
       <c r="AS33" s="4"/>
-      <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
-      <c r="AX33" s="4"/>
-      <c r="AY33" s="4"/>
-      <c r="AZ33" s="4"/>
-      <c r="BA33" s="4"/>
-      <c r="BB33" s="4"/>
-      <c r="BC33" s="4"/>
-      <c r="BD33" s="4"/>
-      <c r="BE33" s="4"/>
-      <c r="BF33" s="4"/>
-      <c r="BG33" s="4"/>
-      <c r="BH33" s="4"/>
-      <c r="BI33" s="43"/>
       <c r="BJ33" s="4"/>
-      <c r="BK33" s="4"/>
+      <c r="BK33" s="5"/>
       <c r="BL33" s="4"/>
-      <c r="BM33" s="6"/>
+      <c r="BM33" s="4"/>
       <c r="BN33" s="4"/>
       <c r="BO33" s="4"/>
       <c r="BP33" s="4"/>
@@ -3971,18 +3736,13 @@
       <c r="CA33" s="4"/>
       <c r="CB33" s="4"/>
       <c r="CC33" s="4"/>
-      <c r="CD33" s="4"/>
-      <c r="CE33" s="4"/>
-      <c r="CF33" s="4"/>
-      <c r="CG33" s="4"/>
-      <c r="CH33" s="4"/>
-      <c r="CI33" s="8"/>
-      <c r="CJ33" s="8"/>
-      <c r="CK33" s="8"/>
-    </row>
-    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>24</v>
+      <c r="CD33" s="7"/>
+      <c r="CE33" s="7"/>
+      <c r="CF33" s="7"/>
+    </row>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -4015,8 +3775,8 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
@@ -4028,27 +3788,11 @@
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
       <c r="AS34" s="4"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
-      <c r="AX34" s="4"/>
-      <c r="AY34" s="4"/>
-      <c r="AZ34" s="4"/>
-      <c r="BA34" s="4"/>
-      <c r="BB34" s="4"/>
-      <c r="BC34" s="4"/>
-      <c r="BD34" s="4"/>
-      <c r="BE34" s="4"/>
-      <c r="BF34" s="4"/>
-      <c r="BG34" s="4"/>
-      <c r="BH34" s="4"/>
-      <c r="BI34" s="4"/>
-      <c r="BJ34" s="43"/>
-      <c r="BK34" s="43"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="17"/>
-      <c r="BN34" s="14"/>
+      <c r="BJ34" s="4"/>
+      <c r="BK34" s="5"/>
+      <c r="BL34" s="4"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="4"/>
       <c r="BO34" s="4"/>
       <c r="BP34" s="4"/>
       <c r="BQ34" s="4"/>
@@ -4064,25 +3808,20 @@
       <c r="CA34" s="4"/>
       <c r="CB34" s="4"/>
       <c r="CC34" s="4"/>
-      <c r="CD34" s="4"/>
-      <c r="CE34" s="4"/>
-      <c r="CF34" s="4"/>
-      <c r="CG34" s="4"/>
-      <c r="CH34" s="4"/>
-      <c r="CI34" s="8"/>
-      <c r="CJ34" s="8"/>
-      <c r="CK34" s="8"/>
-    </row>
-    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>34</v>
+      <c r="CD34" s="7"/>
+      <c r="CE34" s="7"/>
+      <c r="CF34" s="7"/>
+    </row>
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4114,34 +3853,22 @@
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
-      <c r="BI35" s="4"/>
-      <c r="BJ35" s="14"/>
-      <c r="BK35" s="14"/>
-      <c r="BL35" s="37"/>
-      <c r="BM35" s="39"/>
-      <c r="BN35" s="14"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27"/>
+      <c r="AQ35" s="27"/>
+      <c r="AR35" s="27"/>
+      <c r="AS35" s="27"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="43"/>
+      <c r="AW35" s="43"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="4"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="4"/>
       <c r="BO35" s="4"/>
       <c r="BP35" s="4"/>
       <c r="BQ35" s="4"/>
@@ -4157,25 +3884,20 @@
       <c r="CA35" s="4"/>
       <c r="CB35" s="4"/>
       <c r="CC35" s="4"/>
-      <c r="CD35" s="4"/>
-      <c r="CE35" s="4"/>
-      <c r="CF35" s="4"/>
-      <c r="CG35" s="4"/>
-      <c r="CH35" s="4"/>
-      <c r="CI35" s="8"/>
-      <c r="CJ35" s="8"/>
-      <c r="CK35" s="8"/>
-    </row>
-    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>25</v>
+      <c r="CD35" s="7"/>
+      <c r="CE35" s="7"/>
+      <c r="CF35" s="7"/>
+    </row>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -4214,26 +3936,13 @@
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
       <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="4"/>
-      <c r="BF36" s="4"/>
-      <c r="BG36" s="4"/>
-      <c r="BH36" s="4"/>
-      <c r="BI36" s="4"/>
+      <c r="AU36" s="43"/>
+      <c r="AV36" s="43"/>
+      <c r="AW36" s="43"/>
       <c r="BJ36" s="4"/>
-      <c r="BK36" s="4"/>
-      <c r="BL36" s="37"/>
-      <c r="BM36" s="6"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="4"/>
+      <c r="BM36" s="4"/>
       <c r="BN36" s="4"/>
       <c r="BO36" s="4"/>
       <c r="BP36" s="4"/>
@@ -4250,83 +3959,63 @@
       <c r="CA36" s="4"/>
       <c r="CB36" s="4"/>
       <c r="CC36" s="4"/>
-      <c r="CD36" s="4"/>
-      <c r="CE36" s="4"/>
-      <c r="CF36" s="4"/>
-      <c r="CG36" s="4"/>
-      <c r="CH36" s="4"/>
-      <c r="CI36" s="8"/>
-      <c r="CJ36" s="8"/>
-      <c r="CK36" s="8"/>
-    </row>
-    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="7"/>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="7"/>
-      <c r="AO37" s="7"/>
-      <c r="AP37" s="7"/>
-      <c r="AQ37" s="7"/>
-      <c r="AR37" s="7"/>
-      <c r="AS37" s="7"/>
-      <c r="AT37" s="7"/>
-      <c r="AU37" s="7"/>
-      <c r="AV37" s="7"/>
-      <c r="AW37" s="7"/>
-      <c r="AX37" s="7"/>
-      <c r="AY37" s="7"/>
-      <c r="AZ37" s="7"/>
-      <c r="BA37" s="7"/>
-      <c r="BB37" s="7"/>
-      <c r="BC37" s="7"/>
-      <c r="BD37" s="7"/>
-      <c r="BE37" s="7"/>
-      <c r="BF37" s="7"/>
-      <c r="BG37" s="7"/>
-      <c r="BH37" s="7"/>
-      <c r="BI37" s="7"/>
-      <c r="BJ37" s="7"/>
-      <c r="BK37" s="7"/>
-      <c r="BL37" s="7"/>
-      <c r="BM37" s="40"/>
+      <c r="CD36" s="7"/>
+      <c r="CE36" s="7"/>
+      <c r="CF36" s="7"/>
+    </row>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="27"/>
+      <c r="AS37" s="27"/>
+      <c r="AT37" s="43"/>
+      <c r="BJ37" s="11"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="4"/>
+      <c r="BM37" s="4"/>
       <c r="BN37" s="4"/>
       <c r="BO37" s="4"/>
       <c r="BP37" s="4"/>
@@ -4343,3959 +4032,4504 @@
       <c r="CA37" s="4"/>
       <c r="CB37" s="4"/>
       <c r="CC37" s="4"/>
-      <c r="CD37" s="4"/>
-      <c r="CE37" s="4"/>
-      <c r="CF37" s="4"/>
-      <c r="CG37" s="4"/>
-      <c r="CH37" s="4"/>
-      <c r="CI37" s="8"/>
-      <c r="CJ37" s="8"/>
-      <c r="CK37" s="8"/>
-    </row>
-    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="CD37" s="7"/>
+      <c r="CE37" s="7"/>
+      <c r="CF37" s="7"/>
+    </row>
+    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="27"/>
+      <c r="AR38" s="27"/>
+      <c r="AS38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+      <c r="BJ38" s="11"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="4"/>
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="4"/>
+      <c r="BO38" s="4"/>
+      <c r="BP38" s="4"/>
+      <c r="BQ38" s="4"/>
+      <c r="BR38" s="4"/>
+      <c r="BS38" s="4"/>
+      <c r="BT38" s="4"/>
+      <c r="BU38" s="4"/>
+      <c r="BV38" s="4"/>
+      <c r="BW38" s="4"/>
+      <c r="BX38" s="4"/>
+      <c r="BY38" s="4"/>
+      <c r="BZ38" s="4"/>
+      <c r="CA38" s="4"/>
+      <c r="CB38" s="4"/>
+      <c r="CC38" s="4"/>
+      <c r="CD38" s="7"/>
+      <c r="CE38" s="7"/>
+      <c r="CF38" s="7"/>
+    </row>
+    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="27"/>
+      <c r="AO39" s="27"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="4"/>
+      <c r="BJ39" s="4"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="4"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="4"/>
+      <c r="BO39" s="4"/>
+      <c r="BP39" s="4"/>
+      <c r="BQ39" s="4"/>
+      <c r="BR39" s="4"/>
+      <c r="BS39" s="4"/>
+      <c r="BT39" s="4"/>
+      <c r="BU39" s="4"/>
+      <c r="BV39" s="4"/>
+      <c r="BW39" s="4"/>
+      <c r="BX39" s="4"/>
+      <c r="BY39" s="4"/>
+      <c r="BZ39" s="4"/>
+      <c r="CA39" s="4"/>
+      <c r="CB39" s="4"/>
+      <c r="CC39" s="4"/>
+      <c r="CD39" s="7"/>
+      <c r="CE39" s="7"/>
+      <c r="CF39" s="7"/>
+    </row>
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-    </row>
-    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-    </row>
-    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-    </row>
-    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-    </row>
-    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="27"/>
+      <c r="AQ40" s="27"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="4"/>
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="4"/>
+      <c r="BO40" s="4"/>
+      <c r="BP40" s="4"/>
+      <c r="BQ40" s="4"/>
+      <c r="BR40" s="4"/>
+      <c r="BS40" s="4"/>
+      <c r="BT40" s="4"/>
+      <c r="BU40" s="4"/>
+      <c r="BV40" s="4"/>
+      <c r="BW40" s="4"/>
+      <c r="BX40" s="4"/>
+      <c r="BY40" s="4"/>
+      <c r="BZ40" s="4"/>
+      <c r="CA40" s="4"/>
+      <c r="CB40" s="4"/>
+      <c r="CC40" s="4"/>
+      <c r="CD40" s="7"/>
+      <c r="CE40" s="7"/>
+      <c r="CF40" s="7"/>
+    </row>
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="AQ41" s="43"/>
+      <c r="AR41" s="43"/>
+      <c r="AS41" s="43"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="BG41" s="11"/>
+      <c r="BH41" s="11"/>
+      <c r="BI41" s="11"/>
+      <c r="BJ41" s="4"/>
+      <c r="BK41" s="5"/>
+    </row>
+    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="AN42" s="43"/>
+      <c r="AO42" s="43"/>
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
+      <c r="BG42" s="11"/>
+      <c r="BH42" s="11"/>
+      <c r="BI42" s="11"/>
+      <c r="BJ42" s="4"/>
+      <c r="BK42" s="5"/>
+    </row>
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="31"/>
+      <c r="AY43" s="31"/>
+      <c r="AZ43" s="31"/>
+      <c r="BA43" s="31"/>
+      <c r="BB43" s="31"/>
+      <c r="BC43" s="31"/>
+      <c r="BD43" s="31"/>
+      <c r="BE43" s="31"/>
+      <c r="BF43" s="31"/>
+      <c r="BG43" s="11"/>
+      <c r="BH43" s="11"/>
+      <c r="BI43" s="11"/>
+      <c r="BJ43" s="4"/>
+      <c r="BK43" s="5"/>
+    </row>
+    <row r="44" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="31"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="11"/>
+      <c r="BD44" s="11"/>
+      <c r="BE44" s="11"/>
+      <c r="BF44" s="11"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="5"/>
+    </row>
+    <row r="45" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV45" s="16"/>
+      <c r="AW45" s="16"/>
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="11"/>
+      <c r="AZ45" s="11"/>
+      <c r="BA45" s="31"/>
+      <c r="BB45" s="31"/>
+      <c r="BC45" s="31"/>
+      <c r="BD45" s="31"/>
+      <c r="BE45" s="4"/>
+      <c r="BF45" s="4"/>
+      <c r="BG45" s="17"/>
+      <c r="BH45" s="17"/>
+      <c r="BI45" s="17"/>
+      <c r="BJ45" s="16"/>
+      <c r="BK45" s="5"/>
+    </row>
+    <row r="46" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="4"/>
+      <c r="BB46" s="11"/>
+      <c r="BC46" s="11"/>
+      <c r="BD46" s="11"/>
+      <c r="BE46" s="31"/>
+      <c r="BF46" s="31"/>
+      <c r="BG46" s="11"/>
+      <c r="BH46" s="11"/>
+      <c r="BI46" s="11"/>
+      <c r="BJ46" s="11"/>
+      <c r="BK46" s="5"/>
+    </row>
+    <row r="47" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="4"/>
+      <c r="AY47" s="4"/>
+      <c r="AZ47" s="4"/>
+      <c r="BA47" s="4"/>
+      <c r="BB47" s="4"/>
+      <c r="BC47" s="4"/>
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="4"/>
+      <c r="BF47" s="4"/>
+      <c r="BG47" s="44"/>
+      <c r="BH47" s="44"/>
+      <c r="BI47" s="44"/>
+      <c r="BJ47" s="44"/>
+      <c r="BK47" s="5"/>
+    </row>
+    <row r="48" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="4"/>
+      <c r="BG48" s="44"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="4"/>
+      <c r="BK48" s="5"/>
+    </row>
+    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+      <c r="BG49" s="11"/>
+      <c r="BH49" s="44"/>
+      <c r="BI49" s="11"/>
+      <c r="BJ49" s="4"/>
+      <c r="BK49" s="5"/>
+    </row>
+    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV50" s="4"/>
+      <c r="AW50" s="4"/>
+      <c r="AX50" s="4"/>
+      <c r="AY50" s="4"/>
+      <c r="AZ50" s="4"/>
+      <c r="BA50" s="4"/>
+      <c r="BB50" s="4"/>
+      <c r="BC50" s="4"/>
+      <c r="BD50" s="4"/>
+      <c r="BE50" s="4"/>
+      <c r="BF50" s="4"/>
+      <c r="BG50" s="11"/>
+      <c r="BH50" s="11"/>
+      <c r="BI50" s="44"/>
+      <c r="BJ50" s="44"/>
+      <c r="BK50" s="5"/>
+    </row>
+    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
+      <c r="BB51" s="4"/>
+      <c r="BC51" s="4"/>
+      <c r="BD51" s="4"/>
+      <c r="BE51" s="4"/>
+      <c r="BF51" s="4"/>
+      <c r="BG51" s="4"/>
+      <c r="BH51" s="4"/>
+      <c r="BI51" s="11"/>
+      <c r="BJ51" s="11"/>
+      <c r="BK51" s="29"/>
+    </row>
+    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+      <c r="BF52" s="4"/>
+      <c r="BG52" s="4"/>
+      <c r="BH52" s="4"/>
+      <c r="BI52" s="4"/>
+      <c r="BJ52" s="11"/>
+      <c r="BK52" s="29"/>
+    </row>
+    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+      <c r="BC53" s="6"/>
+      <c r="BD53" s="6"/>
+      <c r="BE53" s="6"/>
+      <c r="BF53" s="6"/>
+      <c r="BG53" s="6"/>
+      <c r="BH53" s="6"/>
+      <c r="BI53" s="6"/>
+      <c r="BJ53" s="47"/>
+      <c r="BK53" s="29"/>
+    </row>
+    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+    </row>
+    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+    </row>
+    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+    </row>
+    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+    </row>
+    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+    </row>
+    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+    </row>
+    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+    </row>
+    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+    </row>
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+    </row>
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+    </row>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="39"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="39"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="39"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="39"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="39"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="39"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="39"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="39"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="39"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="39"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="39"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="39"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="39"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="39"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="39"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="39"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="39"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="39"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="39"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="39"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="39"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="39"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="39"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="39"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="39"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="39"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="39"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="39"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="39"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="39"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="39"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="39"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="39"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="39"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="39"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="39"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="39"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="39"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="39"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="39"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="39"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="39"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="39"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="39"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="39"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="39"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="39"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="39"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="39"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="39"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="39"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="39"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="39"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="39"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="39"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="39"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
+      <c r="A121" s="39"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="39"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="39"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="39"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="A125" s="39"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="A126" s="39"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
+      <c r="A127" s="39"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
+      <c r="A128" s="39"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+      <c r="A129" s="39"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+      <c r="A130" s="39"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
+      <c r="A131" s="39"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
+      <c r="A132" s="39"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
+      <c r="A133" s="39"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
+      <c r="A134" s="39"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
+      <c r="A135" s="39"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
+      <c r="A136" s="39"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
+      <c r="A137" s="39"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
+      <c r="A138" s="39"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
+      <c r="A139" s="39"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
+      <c r="A140" s="39"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
+      <c r="A141" s="39"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="39"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="39"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
+      <c r="A144" s="39"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
+      <c r="A145" s="39"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+      <c r="A146" s="39"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
+      <c r="A147" s="39"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
+      <c r="A148" s="39"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
+      <c r="A149" s="39"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
+      <c r="A150" s="39"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
+      <c r="A151" s="39"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
+      <c r="A152" s="39"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
+      <c r="A153" s="39"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
+      <c r="A154" s="39"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
+      <c r="A155" s="39"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
+      <c r="A156" s="39"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
+      <c r="A157" s="39"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
+      <c r="A158" s="39"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
+      <c r="A159" s="39"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
+      <c r="A160" s="39"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
+      <c r="A161" s="39"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
+      <c r="A162" s="39"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
+      <c r="A163" s="39"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
+      <c r="A164" s="39"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
+      <c r="A165" s="39"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
+      <c r="A166" s="39"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
+      <c r="A167" s="39"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
+      <c r="A168" s="39"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
+      <c r="A169" s="39"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
+      <c r="A170" s="39"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
+      <c r="A171" s="39"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
+      <c r="A172" s="39"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
+      <c r="A173" s="39"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
+      <c r="A174" s="39"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
+      <c r="A175" s="39"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
+      <c r="A176" s="39"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
+      <c r="A177" s="39"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
+      <c r="A178" s="39"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
+      <c r="A179" s="39"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
+      <c r="A180" s="39"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
+      <c r="A181" s="39"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
+      <c r="A182" s="39"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
+      <c r="A183" s="39"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
+      <c r="A184" s="39"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="8"/>
+      <c r="A185" s="39"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
+      <c r="A186" s="39"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
+      <c r="A187" s="39"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
+      <c r="A188" s="39"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
+      <c r="A189" s="39"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8"/>
+      <c r="A190" s="39"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8"/>
+      <c r="A191" s="39"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
+      <c r="A192" s="39"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8"/>
+      <c r="A193" s="39"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
+      <c r="A194" s="39"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8"/>
+      <c r="A195" s="39"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8"/>
+      <c r="A196" s="39"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8"/>
+      <c r="A197" s="39"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8"/>
+      <c r="A198" s="39"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8"/>
+      <c r="A199" s="39"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
+      <c r="A200" s="39"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8"/>
+      <c r="A201" s="39"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
+      <c r="A202" s="39"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8"/>
+      <c r="A203" s="39"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
+      <c r="A204" s="39"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8"/>
+      <c r="A205" s="39"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8"/>
+      <c r="A206" s="39"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="8"/>
+      <c r="A207" s="39"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8"/>
+      <c r="A208" s="39"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
+      <c r="A209" s="39"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
+      <c r="A210" s="39"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
+      <c r="A211" s="39"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
+      <c r="A212" s="39"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
+      <c r="A213" s="39"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
+      <c r="A214" s="39"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="8"/>
+      <c r="A215" s="39"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="8"/>
+      <c r="A216" s="39"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="8"/>
+      <c r="A217" s="39"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="8"/>
+      <c r="A218" s="39"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
+      <c r="A219" s="39"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="8"/>
+      <c r="A220" s="39"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="8"/>
+      <c r="A221" s="39"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
+      <c r="A222" s="39"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
+      <c r="A223" s="39"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="8"/>
+      <c r="A224" s="39"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="8"/>
+      <c r="A225" s="39"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="8"/>
+      <c r="A226" s="39"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="8"/>
+      <c r="A227" s="39"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="8"/>
+      <c r="A228" s="39"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="8"/>
+      <c r="A229" s="39"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="8"/>
+      <c r="A230" s="39"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="8"/>
+      <c r="A231" s="39"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="8"/>
+      <c r="A232" s="39"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="8"/>
+      <c r="A233" s="39"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="8"/>
+      <c r="A234" s="39"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="8"/>
+      <c r="A235" s="39"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="8"/>
+      <c r="A236" s="39"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="8"/>
+      <c r="A237" s="39"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8"/>
+      <c r="A238" s="39"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="8"/>
+      <c r="A239" s="39"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="8"/>
+      <c r="A240" s="39"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8"/>
+      <c r="A241" s="39"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="8"/>
+      <c r="A242" s="39"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="8"/>
+      <c r="A243" s="39"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="8"/>
+      <c r="A244" s="39"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="8"/>
+      <c r="A245" s="39"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="8"/>
+      <c r="A246" s="39"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="8"/>
+      <c r="A247" s="39"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="8"/>
+      <c r="A248" s="39"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="8"/>
+      <c r="A249" s="39"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="8"/>
+      <c r="A250" s="39"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="8"/>
+      <c r="A251" s="39"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="8"/>
+      <c r="A252" s="39"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="8"/>
+      <c r="A253" s="39"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="8"/>
+      <c r="A254" s="39"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="8"/>
+      <c r="A255" s="39"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="8"/>
+      <c r="A256" s="39"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="8"/>
+      <c r="A257" s="39"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="8"/>
+      <c r="A258" s="39"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="8"/>
+      <c r="A259" s="39"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="8"/>
+      <c r="A260" s="39"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="8"/>
+      <c r="A261" s="39"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8"/>
+      <c r="A262" s="39"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="8"/>
+      <c r="A263" s="39"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8"/>
+      <c r="A264" s="39"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="8"/>
+      <c r="A265" s="39"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="8"/>
+      <c r="A266" s="39"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
+      <c r="A267" s="39"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
+      <c r="A268" s="39"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="8"/>
+      <c r="A269" s="39"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="8"/>
+      <c r="A270" s="39"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="8"/>
+      <c r="A271" s="39"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="8"/>
+      <c r="A272" s="39"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="8"/>
+      <c r="A273" s="39"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
+      <c r="A274" s="39"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="8"/>
+      <c r="A275" s="39"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
+      <c r="A276" s="39"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="8"/>
+      <c r="A277" s="39"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="8"/>
+      <c r="A278" s="39"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="8"/>
+      <c r="A279" s="39"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="8"/>
+      <c r="A280" s="39"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
+      <c r="A281" s="39"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
+      <c r="A282" s="39"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
+      <c r="A283" s="39"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
+      <c r="A284" s="39"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="8"/>
+      <c r="A285" s="39"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="8"/>
+      <c r="A286" s="39"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="8"/>
+      <c r="A287" s="39"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="8"/>
+      <c r="A288" s="39"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8"/>
+      <c r="A289" s="39"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="8"/>
+      <c r="A290" s="39"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="8"/>
+      <c r="A291" s="39"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="8"/>
+      <c r="A292" s="39"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="8"/>
+      <c r="A293" s="39"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="8"/>
+      <c r="A294" s="39"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="8"/>
+      <c r="A295" s="39"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="8"/>
+      <c r="A296" s="39"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="8"/>
+      <c r="A297" s="39"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="8"/>
+      <c r="A298" s="39"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="8"/>
+      <c r="A299" s="39"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="8"/>
+      <c r="A300" s="39"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="8"/>
+      <c r="A301" s="39"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="8"/>
+      <c r="A302" s="39"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="8"/>
+      <c r="A303" s="39"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="8"/>
+      <c r="A304" s="39"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="8"/>
+      <c r="A305" s="39"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="8"/>
+      <c r="A306" s="39"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="8"/>
+      <c r="A307" s="39"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="8"/>
+      <c r="A308" s="39"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="8"/>
+      <c r="A309" s="39"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="8"/>
+      <c r="A310" s="39"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="8"/>
+      <c r="A311" s="39"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="8"/>
+      <c r="A312" s="39"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="8"/>
+      <c r="A313" s="39"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="8"/>
+      <c r="A314" s="39"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="8"/>
+      <c r="A315" s="39"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="8"/>
+      <c r="A316" s="39"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="8"/>
+      <c r="A317" s="39"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="8"/>
+      <c r="A318" s="39"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="8"/>
+      <c r="A319" s="39"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="8"/>
+      <c r="A320" s="39"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="8"/>
+      <c r="A321" s="39"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="8"/>
+      <c r="A322" s="39"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="8"/>
+      <c r="A323" s="39"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="8"/>
+      <c r="A324" s="39"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="8"/>
+      <c r="A325" s="39"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="8"/>
+      <c r="A326" s="39"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="8"/>
+      <c r="A327" s="39"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="8"/>
+      <c r="A328" s="39"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="8"/>
+      <c r="A329" s="39"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="8"/>
+      <c r="A330" s="39"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="8"/>
+      <c r="A331" s="39"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="8"/>
+      <c r="A332" s="39"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="8"/>
+      <c r="A333" s="39"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="8"/>
+      <c r="A334" s="39"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="8"/>
+      <c r="A335" s="39"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="8"/>
+      <c r="A336" s="39"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="8"/>
+      <c r="A337" s="39"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="8"/>
+      <c r="A338" s="39"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="8"/>
+      <c r="A339" s="39"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="8"/>
+      <c r="A340" s="39"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="8"/>
+      <c r="A341" s="39"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="8"/>
+      <c r="A342" s="39"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="8"/>
+      <c r="A343" s="39"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="8"/>
+      <c r="A344" s="39"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="8"/>
+      <c r="A345" s="39"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="8"/>
+      <c r="A346" s="39"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="8"/>
+      <c r="A347" s="39"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="8"/>
+      <c r="A348" s="39"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="8"/>
+      <c r="A349" s="39"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="8"/>
+      <c r="A350" s="39"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="8"/>
+      <c r="A351" s="39"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="8"/>
+      <c r="A352" s="39"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="8"/>
+      <c r="A353" s="39"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="8"/>
+      <c r="A354" s="39"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="8"/>
+      <c r="A355" s="39"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="8"/>
+      <c r="A356" s="39"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="8"/>
+      <c r="A357" s="39"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="8"/>
+      <c r="A358" s="39"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="8"/>
+      <c r="A359" s="39"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="8"/>
+      <c r="A360" s="39"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="8"/>
+      <c r="A361" s="39"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="8"/>
+      <c r="A362" s="39"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="8"/>
+      <c r="A363" s="39"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="8"/>
+      <c r="A364" s="39"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="8"/>
+      <c r="A365" s="39"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="8"/>
+      <c r="A366" s="39"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="8"/>
+      <c r="A367" s="39"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="8"/>
+      <c r="A368" s="39"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="8"/>
+      <c r="A369" s="39"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="8"/>
+      <c r="A370" s="39"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="8"/>
+      <c r="A371" s="39"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="8"/>
+      <c r="A372" s="39"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="8"/>
+      <c r="A373" s="39"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="8"/>
+      <c r="A374" s="39"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="8"/>
+      <c r="A375" s="39"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="8"/>
+      <c r="A376" s="39"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="8"/>
+      <c r="A377" s="39"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="8"/>
+      <c r="A378" s="39"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="8"/>
+      <c r="A379" s="39"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="8"/>
+      <c r="A380" s="39"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="8"/>
+      <c r="A381" s="39"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="8"/>
+      <c r="A382" s="39"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="8"/>
+      <c r="A383" s="39"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="8"/>
+      <c r="A384" s="39"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="8"/>
+      <c r="A385" s="39"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="8"/>
+      <c r="A386" s="39"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="8"/>
+      <c r="A387" s="39"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="8"/>
+      <c r="A388" s="39"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="8"/>
+      <c r="A389" s="39"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="8"/>
+      <c r="A390" s="39"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="8"/>
+      <c r="A391" s="39"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="8"/>
+      <c r="A392" s="39"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="8"/>
+      <c r="A393" s="39"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="8"/>
+      <c r="A394" s="39"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="8"/>
+      <c r="A395" s="39"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="8"/>
+      <c r="A396" s="39"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="8"/>
+      <c r="A397" s="39"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="8"/>
+      <c r="A398" s="39"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="8"/>
+      <c r="A399" s="39"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="8"/>
+      <c r="A400" s="39"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="8"/>
+      <c r="A401" s="39"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="8"/>
+      <c r="A402" s="39"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="8"/>
+      <c r="A403" s="39"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="8"/>
+      <c r="A404" s="39"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="8"/>
+      <c r="A405" s="39"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="8"/>
+      <c r="A406" s="39"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="8"/>
+      <c r="A407" s="39"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="8"/>
+      <c r="A408" s="39"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="8"/>
+      <c r="A409" s="39"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="8"/>
+      <c r="A410" s="39"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="8"/>
+      <c r="A411" s="39"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="8"/>
+      <c r="A412" s="39"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="8"/>
+      <c r="A413" s="39"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="8"/>
+      <c r="A414" s="39"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="8"/>
+      <c r="A415" s="39"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="8"/>
+      <c r="A416" s="39"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="8"/>
+      <c r="A417" s="39"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="8"/>
+      <c r="A418" s="39"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="8"/>
+      <c r="A419" s="39"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="8"/>
+      <c r="A420" s="39"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="8"/>
+      <c r="A421" s="39"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="8"/>
+      <c r="A422" s="39"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="8"/>
+      <c r="A423" s="39"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="8"/>
+      <c r="A424" s="39"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="8"/>
+      <c r="A425" s="39"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="8"/>
+      <c r="A426" s="39"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="8"/>
+      <c r="A427" s="39"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="8"/>
+      <c r="A428" s="39"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="8"/>
+      <c r="A429" s="39"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="8"/>
+      <c r="A430" s="39"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="8"/>
+      <c r="A431" s="39"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="8"/>
+      <c r="A432" s="39"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="8"/>
+      <c r="A433" s="39"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="8"/>
+      <c r="A434" s="39"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="8"/>
+      <c r="A435" s="39"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="8"/>
+      <c r="A436" s="39"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="8"/>
+      <c r="A437" s="39"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="8"/>
+      <c r="A438" s="39"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="8"/>
+      <c r="A439" s="39"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="8"/>
+      <c r="A440" s="39"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="8"/>
+      <c r="A441" s="39"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="8"/>
+      <c r="A442" s="39"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="8"/>
+      <c r="A443" s="39"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="8"/>
+      <c r="A444" s="39"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="8"/>
+      <c r="A445" s="39"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="8"/>
+      <c r="A446" s="39"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="8"/>
+      <c r="A447" s="39"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="8"/>
+      <c r="A448" s="39"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="8"/>
+      <c r="A449" s="39"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="8"/>
+      <c r="A450" s="39"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="8"/>
+      <c r="A451" s="39"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="8"/>
+      <c r="A452" s="39"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="8"/>
+      <c r="A453" s="39"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="8"/>
+      <c r="A454" s="39"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="8"/>
+      <c r="A455" s="39"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="8"/>
+      <c r="A456" s="39"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="8"/>
+      <c r="A457" s="39"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="8"/>
+      <c r="A458" s="39"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="8"/>
+      <c r="A459" s="39"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="8"/>
+      <c r="A460" s="39"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="8"/>
+      <c r="A461" s="39"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="8"/>
+      <c r="A462" s="39"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="8"/>
+      <c r="A463" s="39"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="8"/>
+      <c r="A464" s="39"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="8"/>
+      <c r="A465" s="39"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="8"/>
+      <c r="A466" s="39"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="8"/>
+      <c r="A467" s="39"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="8"/>
+      <c r="A468" s="39"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="8"/>
+      <c r="A469" s="39"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="8"/>
+      <c r="A470" s="39"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="8"/>
+      <c r="A471" s="39"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="8"/>
+      <c r="A472" s="39"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="8"/>
+      <c r="A473" s="39"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="8"/>
+      <c r="A474" s="39"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="8"/>
+      <c r="A475" s="39"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="8"/>
+      <c r="A476" s="39"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="8"/>
+      <c r="A477" s="39"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="8"/>
+      <c r="A478" s="39"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="8"/>
+      <c r="A479" s="39"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="8"/>
+      <c r="A480" s="39"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="8"/>
+      <c r="A481" s="39"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="8"/>
+      <c r="A482" s="39"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="8"/>
+      <c r="A483" s="39"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="8"/>
+      <c r="A484" s="39"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="8"/>
+      <c r="A485" s="39"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="8"/>
+      <c r="A486" s="39"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="8"/>
+      <c r="A487" s="39"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="8"/>
+      <c r="A488" s="39"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="8"/>
+      <c r="A489" s="39"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="8"/>
+      <c r="A490" s="39"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="8"/>
+      <c r="A491" s="39"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="8"/>
+      <c r="A492" s="39"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="8"/>
+      <c r="A493" s="39"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="8"/>
+      <c r="A494" s="39"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="8"/>
+      <c r="A495" s="39"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="8"/>
+      <c r="A496" s="39"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="8"/>
+      <c r="A497" s="39"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="8"/>
+      <c r="A498" s="39"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="8"/>
+      <c r="A499" s="39"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="8"/>
+      <c r="A500" s="39"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="8"/>
+      <c r="A501" s="39"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="8"/>
+      <c r="A502" s="39"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="8"/>
+      <c r="A503" s="39"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="8"/>
+      <c r="A504" s="39"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="8"/>
+      <c r="A505" s="39"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="8"/>
+      <c r="A506" s="39"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="8"/>
+      <c r="A507" s="39"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="8"/>
+      <c r="A508" s="39"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="8"/>
+      <c r="A509" s="39"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="8"/>
+      <c r="A510" s="39"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="8"/>
+      <c r="A511" s="39"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="8"/>
+      <c r="A512" s="39"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="8"/>
+      <c r="A513" s="39"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="8"/>
+      <c r="A514" s="39"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="8"/>
+      <c r="A515" s="39"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="8"/>
+      <c r="A516" s="39"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="8"/>
+      <c r="A517" s="39"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="8"/>
+      <c r="A518" s="39"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="8"/>
+      <c r="A519" s="39"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="8"/>
+      <c r="A520" s="39"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="8"/>
+      <c r="A521" s="39"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="8"/>
+      <c r="A522" s="39"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="8"/>
+      <c r="A523" s="39"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="8"/>
+      <c r="A524" s="39"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="8"/>
+      <c r="A525" s="39"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="8"/>
+      <c r="A526" s="39"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="8"/>
+      <c r="A527" s="39"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="8"/>
+      <c r="A528" s="39"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="8"/>
+      <c r="A529" s="39"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="8"/>
+      <c r="A530" s="39"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="8"/>
+      <c r="A531" s="39"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="8"/>
+      <c r="A532" s="39"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="8"/>
+      <c r="A533" s="39"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="8"/>
+      <c r="A534" s="39"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="8"/>
+      <c r="A535" s="39"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="8"/>
+      <c r="A536" s="39"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="8"/>
+      <c r="A537" s="39"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="8"/>
+      <c r="A538" s="39"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="8"/>
+      <c r="A539" s="39"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="8"/>
+      <c r="A540" s="39"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="8"/>
+      <c r="A541" s="39"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="8"/>
+      <c r="A542" s="39"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="8"/>
+      <c r="A543" s="39"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="8"/>
+      <c r="A544" s="39"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="8"/>
+      <c r="A545" s="39"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="8"/>
+      <c r="A546" s="39"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="8"/>
+      <c r="A547" s="39"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="8"/>
+      <c r="A548" s="39"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="8"/>
+      <c r="A549" s="39"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="8"/>
+      <c r="A550" s="39"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="8"/>
+      <c r="A551" s="39"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="8"/>
+      <c r="A552" s="39"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="8"/>
+      <c r="A553" s="39"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="8"/>
+      <c r="A554" s="39"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="8"/>
+      <c r="A555" s="39"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="8"/>
+      <c r="A556" s="39"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="8"/>
+      <c r="A557" s="39"/>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="8"/>
+      <c r="A558" s="39"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="8"/>
+      <c r="A559" s="39"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="8"/>
+      <c r="A560" s="39"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="8"/>
+      <c r="A561" s="39"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="8"/>
+      <c r="A562" s="39"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="8"/>
+      <c r="A563" s="39"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="8"/>
+      <c r="A564" s="39"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="8"/>
+      <c r="A565" s="39"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="8"/>
+      <c r="A566" s="39"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="8"/>
+      <c r="A567" s="39"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="8"/>
+      <c r="A568" s="39"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="8"/>
+      <c r="A569" s="39"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="8"/>
+      <c r="A570" s="39"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="8"/>
+      <c r="A571" s="39"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="8"/>
+      <c r="A572" s="39"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="8"/>
+      <c r="A573" s="39"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="8"/>
+      <c r="A574" s="39"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="8"/>
+      <c r="A575" s="39"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="8"/>
+      <c r="A576" s="39"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="8"/>
+      <c r="A577" s="39"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="8"/>
+      <c r="A578" s="39"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="8"/>
+      <c r="A579" s="39"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="8"/>
+      <c r="A580" s="39"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="8"/>
+      <c r="A581" s="39"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="8"/>
+      <c r="A582" s="39"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="8"/>
+      <c r="A583" s="39"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="8"/>
+      <c r="A584" s="39"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="8"/>
+      <c r="A585" s="39"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="8"/>
+      <c r="A586" s="39"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="8"/>
+      <c r="A587" s="39"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="8"/>
+      <c r="A588" s="39"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="8"/>
+      <c r="A589" s="39"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="8"/>
+      <c r="A590" s="39"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="8"/>
+      <c r="A591" s="39"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="8"/>
+      <c r="A592" s="39"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="8"/>
+      <c r="A593" s="39"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="8"/>
+      <c r="A594" s="39"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="8"/>
+      <c r="A595" s="39"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="8"/>
+      <c r="A596" s="39"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="8"/>
+      <c r="A597" s="39"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="8"/>
+      <c r="A598" s="39"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="8"/>
+      <c r="A599" s="39"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="8"/>
+      <c r="A600" s="39"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="8"/>
+      <c r="A601" s="39"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="8"/>
+      <c r="A602" s="39"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="8"/>
+      <c r="A603" s="39"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="8"/>
+      <c r="A604" s="39"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="8"/>
+      <c r="A605" s="39"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="8"/>
+      <c r="A606" s="39"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="8"/>
+      <c r="A607" s="39"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="8"/>
+      <c r="A608" s="39"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="8"/>
+      <c r="A609" s="39"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="8"/>
+      <c r="A610" s="39"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="8"/>
+      <c r="A611" s="39"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="8"/>
+      <c r="A612" s="39"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="8"/>
+      <c r="A613" s="39"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="8"/>
+      <c r="A614" s="39"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="8"/>
+      <c r="A615" s="39"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="8"/>
+      <c r="A616" s="39"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="8"/>
+      <c r="A617" s="39"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="8"/>
+      <c r="A618" s="39"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="8"/>
+      <c r="A619" s="39"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="8"/>
+      <c r="A620" s="39"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="8"/>
+      <c r="A621" s="39"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="8"/>
+      <c r="A622" s="39"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="8"/>
+      <c r="A623" s="39"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="8"/>
+      <c r="A624" s="39"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="8"/>
+      <c r="A625" s="39"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="8"/>
+      <c r="A626" s="39"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="8"/>
+      <c r="A627" s="39"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="8"/>
+      <c r="A628" s="39"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="8"/>
+      <c r="A629" s="39"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="8"/>
+      <c r="A630" s="39"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="8"/>
+      <c r="A631" s="39"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="8"/>
+      <c r="A632" s="39"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="8"/>
+      <c r="A633" s="39"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="8"/>
+      <c r="A634" s="39"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="8"/>
+      <c r="A635" s="39"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="8"/>
+      <c r="A636" s="39"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="8"/>
+      <c r="A637" s="39"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="8"/>
+      <c r="A638" s="39"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="8"/>
+      <c r="A639" s="39"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="8"/>
+      <c r="A640" s="39"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="8"/>
+      <c r="A641" s="39"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="8"/>
+      <c r="A642" s="39"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="8"/>
+      <c r="A643" s="39"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="8"/>
+      <c r="A644" s="39"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="8"/>
+      <c r="A645" s="39"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="8"/>
+      <c r="A646" s="39"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="8"/>
+      <c r="A647" s="39"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="8"/>
+      <c r="A648" s="39"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="8"/>
+      <c r="A649" s="39"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="8"/>
+      <c r="A650" s="39"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="8"/>
+      <c r="A651" s="39"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="8"/>
+      <c r="A652" s="39"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="8"/>
+      <c r="A653" s="39"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="8"/>
+      <c r="A654" s="39"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="8"/>
+      <c r="A655" s="39"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="8"/>
+      <c r="A656" s="39"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="8"/>
+      <c r="A657" s="39"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="8"/>
+      <c r="A658" s="39"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="8"/>
+      <c r="A659" s="39"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="8"/>
+      <c r="A660" s="39"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="8"/>
+      <c r="A661" s="39"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="8"/>
+      <c r="A662" s="39"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="8"/>
+      <c r="A663" s="39"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="8"/>
+      <c r="A664" s="39"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="8"/>
+      <c r="A665" s="39"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="8"/>
+      <c r="A666" s="39"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="8"/>
+      <c r="A667" s="39"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="8"/>
+      <c r="A668" s="39"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="8"/>
+      <c r="A669" s="39"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="8"/>
+      <c r="A670" s="39"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="8"/>
+      <c r="A671" s="39"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="8"/>
+      <c r="A672" s="39"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="8"/>
+      <c r="A673" s="39"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="8"/>
+      <c r="A674" s="39"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="8"/>
+      <c r="A675" s="39"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="8"/>
+      <c r="A676" s="39"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="8"/>
+      <c r="A677" s="39"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="8"/>
+      <c r="A678" s="39"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="8"/>
+      <c r="A679" s="39"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="8"/>
+      <c r="A680" s="39"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="8"/>
+      <c r="A681" s="39"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="8"/>
+      <c r="A682" s="39"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="8"/>
+      <c r="A683" s="39"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="8"/>
+      <c r="A684" s="39"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="8"/>
+      <c r="A685" s="39"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="8"/>
+      <c r="A686" s="39"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="8"/>
+      <c r="A687" s="39"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="8"/>
+      <c r="A688" s="39"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="8"/>
+      <c r="A689" s="39"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="8"/>
+      <c r="A690" s="39"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="8"/>
+      <c r="A691" s="39"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="8"/>
+      <c r="A692" s="39"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="8"/>
+      <c r="A693" s="39"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="8"/>
+      <c r="A694" s="39"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="8"/>
+      <c r="A695" s="39"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="8"/>
+      <c r="A696" s="39"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="8"/>
+      <c r="A697" s="39"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="8"/>
+      <c r="A698" s="39"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="8"/>
+      <c r="A699" s="39"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="8"/>
+      <c r="A700" s="39"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="8"/>
+      <c r="A701" s="39"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="8"/>
+      <c r="A702" s="39"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="8"/>
+      <c r="A703" s="39"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="8"/>
+      <c r="A704" s="39"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="8"/>
+      <c r="A705" s="39"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="8"/>
+      <c r="A706" s="39"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="8"/>
+      <c r="A707" s="39"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="8"/>
+      <c r="A708" s="39"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="8"/>
+      <c r="A709" s="39"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="8"/>
+      <c r="A710" s="39"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="8"/>
+      <c r="A711" s="39"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="8"/>
+      <c r="A712" s="39"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="8"/>
+      <c r="A713" s="39"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="8"/>
+      <c r="A714" s="39"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="8"/>
+      <c r="A715" s="39"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="8"/>
+      <c r="A716" s="39"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="8"/>
+      <c r="A717" s="39"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="8"/>
+      <c r="A718" s="39"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="8"/>
+      <c r="A719" s="39"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="8"/>
+      <c r="A720" s="39"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="8"/>
+      <c r="A721" s="39"/>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="8"/>
+      <c r="A722" s="39"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="8"/>
+      <c r="A723" s="39"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="8"/>
+      <c r="A724" s="39"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="8"/>
+      <c r="A725" s="39"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="8"/>
+      <c r="A726" s="39"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="8"/>
+      <c r="A727" s="39"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="8"/>
+      <c r="A728" s="39"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="8"/>
+      <c r="A729" s="39"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="8"/>
+      <c r="A730" s="39"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="8"/>
+      <c r="A731" s="39"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="8"/>
+      <c r="A732" s="39"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="8"/>
+      <c r="A733" s="39"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" s="8"/>
+      <c r="A734" s="39"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" s="8"/>
+      <c r="A735" s="39"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" s="8"/>
+      <c r="A736" s="39"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" s="8"/>
+      <c r="A737" s="39"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" s="8"/>
+      <c r="A738" s="39"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" s="8"/>
+      <c r="A739" s="39"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" s="8"/>
+      <c r="A740" s="39"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" s="8"/>
+      <c r="A741" s="39"/>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="8"/>
+      <c r="A742" s="39"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" s="8"/>
+      <c r="A743" s="39"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" s="8"/>
+      <c r="A744" s="39"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" s="8"/>
+      <c r="A745" s="39"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" s="8"/>
+      <c r="A746" s="39"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" s="8"/>
+      <c r="A747" s="39"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" s="8"/>
+      <c r="A748" s="39"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" s="8"/>
+      <c r="A749" s="39"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" s="8"/>
+      <c r="A750" s="39"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" s="8"/>
+      <c r="A751" s="39"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" s="8"/>
+      <c r="A752" s="39"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" s="8"/>
+      <c r="A753" s="39"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" s="8"/>
+      <c r="A754" s="39"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" s="8"/>
+      <c r="A755" s="39"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" s="8"/>
+      <c r="A756" s="39"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" s="8"/>
+      <c r="A757" s="39"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" s="8"/>
+      <c r="A758" s="39"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" s="8"/>
+      <c r="A759" s="39"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" s="8"/>
+      <c r="A760" s="39"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" s="8"/>
+      <c r="A761" s="39"/>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" s="8"/>
+      <c r="A762" s="39"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" s="8"/>
+      <c r="A763" s="39"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" s="8"/>
+      <c r="A764" s="39"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" s="8"/>
+      <c r="A765" s="39"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" s="8"/>
+      <c r="A766" s="39"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" s="8"/>
+      <c r="A767" s="39"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" s="8"/>
+      <c r="A768" s="39"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" s="8"/>
+      <c r="A769" s="39"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" s="8"/>
+      <c r="A770" s="39"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" s="8"/>
+      <c r="A771" s="39"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" s="8"/>
+      <c r="A772" s="39"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" s="8"/>
+      <c r="A773" s="39"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" s="8"/>
+      <c r="A774" s="39"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" s="8"/>
+      <c r="A775" s="39"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" s="8"/>
+      <c r="A776" s="39"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" s="8"/>
+      <c r="A777" s="39"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" s="8"/>
+      <c r="A778" s="39"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" s="8"/>
+      <c r="A779" s="39"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" s="8"/>
+      <c r="A780" s="39"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="8"/>
+      <c r="A781" s="39"/>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="8"/>
+      <c r="A782" s="39"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="8"/>
+      <c r="A783" s="39"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" s="8"/>
+      <c r="A784" s="39"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" s="8"/>
+      <c r="A785" s="39"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" s="8"/>
+      <c r="A786" s="39"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" s="8"/>
+      <c r="A787" s="39"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" s="8"/>
+      <c r="A788" s="39"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" s="8"/>
+      <c r="A789" s="39"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" s="8"/>
+      <c r="A790" s="39"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" s="8"/>
+      <c r="A791" s="39"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" s="8"/>
+      <c r="A792" s="39"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" s="8"/>
+      <c r="A793" s="39"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" s="8"/>
+      <c r="A794" s="39"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" s="8"/>
+      <c r="A795" s="39"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" s="8"/>
+      <c r="A796" s="39"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A797" s="8"/>
+      <c r="A797" s="39"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A798" s="8"/>
+      <c r="A798" s="39"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A799" s="8"/>
+      <c r="A799" s="39"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A800" s="8"/>
+      <c r="A800" s="39"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A801" s="8"/>
+      <c r="A801" s="39"/>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A802" s="8"/>
+      <c r="A802" s="39"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A803" s="8"/>
+      <c r="A803" s="39"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A804" s="8"/>
+      <c r="A804" s="39"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A805" s="8"/>
+      <c r="A805" s="39"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A806" s="8"/>
+      <c r="A806" s="39"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A807" s="8"/>
+      <c r="A807" s="39"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A808" s="8"/>
+      <c r="A808" s="39"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A809" s="8"/>
+      <c r="A809" s="39"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A810" s="8"/>
+      <c r="A810" s="39"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A811" s="8"/>
+      <c r="A811" s="39"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A812" s="8"/>
+      <c r="A812" s="39"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A813" s="8"/>
+      <c r="A813" s="39"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A814" s="8"/>
+      <c r="A814" s="39"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A815" s="8"/>
+      <c r="A815" s="39"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A816" s="8"/>
+      <c r="A816" s="39"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A817" s="8"/>
+      <c r="A817" s="39"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" s="8"/>
+      <c r="A818" s="39"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A819" s="8"/>
+      <c r="A819" s="39"/>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" s="8"/>
+      <c r="A820" s="39"/>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" s="8"/>
+      <c r="A821" s="39"/>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" s="8"/>
+      <c r="A822" s="39"/>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" s="8"/>
+      <c r="A823" s="39"/>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" s="8"/>
+      <c r="A824" s="39"/>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" s="8"/>
+      <c r="A825" s="39"/>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" s="8"/>
+      <c r="A826" s="39"/>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" s="8"/>
+      <c r="A827" s="39"/>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" s="8"/>
+      <c r="A828" s="39"/>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" s="8"/>
+      <c r="A829" s="39"/>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" s="8"/>
+      <c r="A830" s="39"/>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A831" s="8"/>
+      <c r="A831" s="39"/>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A832" s="8"/>
+      <c r="A832" s="39"/>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A833" s="8"/>
+      <c r="A833" s="39"/>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A834" s="8"/>
+      <c r="A834" s="39"/>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A835" s="8"/>
+      <c r="A835" s="39"/>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A836" s="8"/>
+      <c r="A836" s="39"/>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837" s="8"/>
+      <c r="A837" s="39"/>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838" s="8"/>
+      <c r="A838" s="39"/>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A839" s="8"/>
+      <c r="A839" s="39"/>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840" s="8"/>
+      <c r="A840" s="39"/>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841" s="8"/>
+      <c r="A841" s="39"/>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842" s="8"/>
+      <c r="A842" s="39"/>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843" s="8"/>
+      <c r="A843" s="39"/>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844" s="8"/>
+      <c r="A844" s="39"/>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A845" s="8"/>
+      <c r="A845" s="39"/>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A846" s="8"/>
+      <c r="A846" s="39"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847" s="8"/>
+      <c r="A847" s="39"/>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A848" s="8"/>
+      <c r="A848" s="39"/>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="8"/>
+      <c r="A849" s="39"/>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="8"/>
+      <c r="A850" s="39"/>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="8"/>
+      <c r="A851" s="39"/>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="8"/>
+      <c r="A852" s="39"/>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="8"/>
+      <c r="A853" s="39"/>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="8"/>
+      <c r="A854" s="39"/>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="8"/>
+      <c r="A855" s="39"/>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="8"/>
+      <c r="A856" s="39"/>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="8"/>
+      <c r="A857" s="39"/>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="8"/>
+      <c r="A858" s="39"/>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="8"/>
+      <c r="A859" s="39"/>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="8"/>
+      <c r="A860" s="39"/>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="8"/>
+      <c r="A861" s="39"/>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="8"/>
+      <c r="A862" s="39"/>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="8"/>
+      <c r="A863" s="39"/>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="8"/>
+      <c r="A864" s="39"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="8"/>
+      <c r="A865" s="39"/>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="8"/>
+      <c r="A866" s="39"/>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="8"/>
+      <c r="A867" s="39"/>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="8"/>
+      <c r="A868" s="39"/>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="8"/>
+      <c r="A869" s="39"/>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="8"/>
+      <c r="A870" s="39"/>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="8"/>
+      <c r="A871" s="39"/>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="8"/>
+      <c r="A872" s="39"/>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="8"/>
+      <c r="A873" s="39"/>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="8"/>
+      <c r="A874" s="39"/>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="8"/>
+      <c r="A875" s="39"/>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="8"/>
+      <c r="A876" s="39"/>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="8"/>
+      <c r="A877" s="39"/>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="8"/>
+      <c r="A878" s="39"/>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="8"/>
+      <c r="A879" s="39"/>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="8"/>
+      <c r="A880" s="39"/>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="8"/>
+      <c r="A881" s="39"/>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="8"/>
+      <c r="A882" s="39"/>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="8"/>
+      <c r="A883" s="39"/>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="8"/>
+      <c r="A884" s="39"/>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="8"/>
+      <c r="A885" s="39"/>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="8"/>
+      <c r="A886" s="39"/>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="8"/>
+      <c r="A887" s="39"/>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="8"/>
+      <c r="A888" s="39"/>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="8"/>
+      <c r="A889" s="39"/>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="8"/>
+      <c r="A890" s="39"/>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="8"/>
+      <c r="A891" s="39"/>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="8"/>
+      <c r="A892" s="39"/>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="8"/>
+      <c r="A893" s="39"/>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="8"/>
+      <c r="A894" s="39"/>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="8"/>
+      <c r="A895" s="39"/>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="8"/>
+      <c r="A896" s="39"/>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="8"/>
+      <c r="A897" s="39"/>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="8"/>
+      <c r="A898" s="39"/>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="8"/>
+      <c r="A899" s="39"/>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="8"/>
+      <c r="A900" s="39"/>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="8"/>
+      <c r="A901" s="39"/>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="8"/>
+      <c r="A902" s="39"/>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="8"/>
+      <c r="A903" s="39"/>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="8"/>
+      <c r="A904" s="39"/>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="8"/>
+      <c r="A905" s="39"/>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="8"/>
+      <c r="A906" s="39"/>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="8"/>
+      <c r="A907" s="39"/>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="8"/>
+      <c r="A908" s="39"/>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="8"/>
+      <c r="A909" s="39"/>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="8"/>
+      <c r="A910" s="39"/>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="8"/>
+      <c r="A911" s="39"/>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="8"/>
+      <c r="A912" s="39"/>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="8"/>
+      <c r="A913" s="39"/>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="8"/>
+      <c r="A914" s="39"/>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="8"/>
+      <c r="A915" s="39"/>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="8"/>
+      <c r="A916" s="39"/>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="8"/>
+      <c r="A917" s="39"/>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="8"/>
+      <c r="A918" s="39"/>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="8"/>
+      <c r="A919" s="39"/>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="8"/>
+      <c r="A920" s="39"/>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="8"/>
+      <c r="A921" s="39"/>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="8"/>
+      <c r="A922" s="39"/>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="8"/>
+      <c r="A923" s="39"/>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="8"/>
+      <c r="A924" s="39"/>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="8"/>
+      <c r="A925" s="39"/>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="8"/>
+      <c r="A926" s="39"/>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="8"/>
+      <c r="A927" s="39"/>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="8"/>
+      <c r="A928" s="39"/>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="8"/>
+      <c r="A929" s="39"/>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="8"/>
+      <c r="A930" s="39"/>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="8"/>
+      <c r="A931" s="39"/>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="8"/>
+      <c r="A932" s="39"/>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="8"/>
+      <c r="A933" s="39"/>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="8"/>
+      <c r="A934" s="39"/>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="8"/>
+      <c r="A935" s="39"/>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="8"/>
+      <c r="A936" s="39"/>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="8"/>
+      <c r="A937" s="39"/>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" s="8"/>
+      <c r="A938" s="39"/>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" s="8"/>
+      <c r="A939" s="39"/>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" s="8"/>
+      <c r="A940" s="39"/>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" s="8"/>
+      <c r="A941" s="39"/>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" s="8"/>
+      <c r="A942" s="39"/>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A943" s="8"/>
+      <c r="A943" s="39"/>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" s="8"/>
+      <c r="A944" s="39"/>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A945" s="8"/>
+      <c r="A945" s="39"/>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" s="8"/>
+      <c r="A946" s="39"/>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947" s="8"/>
+      <c r="A947" s="39"/>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948" s="8"/>
+      <c r="A948" s="39"/>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" s="8"/>
+      <c r="A949" s="39"/>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950" s="8"/>
+      <c r="A950" s="39"/>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951" s="8"/>
+      <c r="A951" s="39"/>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952" s="8"/>
+      <c r="A952" s="39"/>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953" s="8"/>
+      <c r="A953" s="39"/>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954" s="8"/>
+      <c r="A954" s="39"/>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955" s="8"/>
+      <c r="A955" s="39"/>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956" s="8"/>
+      <c r="A956" s="39"/>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957" s="8"/>
+      <c r="A957" s="39"/>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958" s="8"/>
+      <c r="A958" s="39"/>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959" s="8"/>
+      <c r="A959" s="39"/>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960" s="8"/>
+      <c r="A960" s="39"/>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961" s="8"/>
+      <c r="A961" s="39"/>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962" s="8"/>
+      <c r="A962" s="39"/>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963" s="8"/>
+      <c r="A963" s="39"/>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964" s="8"/>
+      <c r="A964" s="39"/>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965" s="8"/>
+      <c r="A965" s="39"/>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966" s="8"/>
+      <c r="A966" s="39"/>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967" s="8"/>
+      <c r="A967" s="39"/>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" s="8"/>
+      <c r="A968" s="39"/>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" s="8"/>
+      <c r="A969" s="39"/>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" s="8"/>
+      <c r="A970" s="39"/>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971" s="8"/>
+      <c r="A971" s="39"/>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972" s="8"/>
+      <c r="A972" s="39"/>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973" s="8"/>
+      <c r="A973" s="39"/>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" s="8"/>
+      <c r="A974" s="39"/>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975" s="8"/>
+      <c r="A975" s="39"/>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" s="8"/>
+      <c r="A976" s="39"/>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977" s="8"/>
+      <c r="A977" s="39"/>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978" s="8"/>
+      <c r="A978" s="39"/>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979" s="8"/>
+      <c r="A979" s="39"/>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" s="8"/>
+      <c r="A980" s="39"/>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" s="8"/>
+      <c r="A981" s="39"/>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982" s="8"/>
+      <c r="A982" s="39"/>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" s="8"/>
+      <c r="A983" s="39"/>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A984" s="8"/>
+      <c r="A984" s="39"/>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A985" s="8"/>
+      <c r="A985" s="39"/>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986" s="8"/>
+      <c r="A986" s="39"/>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987" s="8"/>
+      <c r="A987" s="39"/>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" s="8"/>
+      <c r="A988" s="39"/>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" s="8"/>
+      <c r="A989" s="39"/>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" s="8"/>
+      <c r="A990" s="39"/>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" s="8"/>
+      <c r="A991" s="39"/>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992" s="8"/>
+      <c r="A992" s="39"/>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" s="8"/>
+      <c r="A993" s="39"/>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" s="8"/>
+      <c r="A994" s="39"/>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" s="8"/>
+      <c r="A995" s="39"/>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" s="8"/>
+      <c r="A996" s="39"/>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" s="8"/>
+      <c r="A997" s="39"/>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" s="8"/>
+      <c r="A998" s="39"/>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" s="8"/>
+      <c r="A999" s="39"/>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="8"/>
+      <c r="A1000" s="39"/>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="8"/>
+      <c r="A1001" s="39"/>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="8"/>
+      <c r="A1002" s="39"/>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="8"/>
+      <c r="A1003" s="39"/>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004" s="8"/>
+      <c r="A1004" s="39"/>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="8"/>
+      <c r="A1005" s="39"/>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="8"/>
+      <c r="A1006" s="39"/>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="8"/>
+      <c r="A1007" s="39"/>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" s="8"/>
+      <c r="A1008" s="39"/>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009" s="8"/>
+      <c r="A1009" s="39"/>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010" s="8"/>
+      <c r="A1010" s="39"/>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1011" s="8"/>
+      <c r="A1011" s="39"/>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012" s="8"/>
+      <c r="A1012" s="39"/>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1013" s="8"/>
+      <c r="A1013" s="39"/>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1014" s="8"/>
+      <c r="A1014" s="39"/>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1015" s="8"/>
+      <c r="A1015" s="39"/>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1016" s="8"/>
+      <c r="A1016" s="39"/>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1017" s="8"/>
+      <c r="A1017" s="39"/>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1018" s="8"/>
+      <c r="A1018" s="39"/>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1019" s="8"/>
+      <c r="A1019" s="39"/>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1020" s="8"/>
+      <c r="A1020" s="39"/>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1021" s="8"/>
+      <c r="A1021" s="39"/>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1022" s="8"/>
+      <c r="A1022" s="39"/>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023" s="8"/>
+      <c r="A1023" s="39"/>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024" s="8"/>
+      <c r="A1024" s="39"/>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025" s="8"/>
+      <c r="A1025" s="39"/>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026" s="8"/>
+      <c r="A1026" s="39"/>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" s="8"/>
+      <c r="A1027" s="39"/>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" s="8"/>
+      <c r="A1028" s="39"/>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029" s="8"/>
+      <c r="A1029" s="39"/>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030" s="8"/>
+      <c r="A1030" s="39"/>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031" s="8"/>
+      <c r="A1031" s="39"/>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032" s="8"/>
+      <c r="A1032" s="39"/>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033" s="8"/>
+      <c r="A1033" s="39"/>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1034" s="8"/>
+      <c r="A1034" s="39"/>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" s="8"/>
+      <c r="A1035" s="39"/>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="8"/>
+      <c r="A1036" s="39"/>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037" s="8"/>
+      <c r="A1037" s="39"/>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038" s="8"/>
+      <c r="A1038" s="39"/>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039" s="8"/>
+      <c r="A1039" s="39"/>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1040" s="8"/>
+      <c r="A1040" s="39"/>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1041" s="8"/>
+      <c r="A1041" s="39"/>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1042" s="8"/>
+      <c r="A1042" s="39"/>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043" s="8"/>
+      <c r="A1043" s="39"/>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044" s="8"/>
+      <c r="A1044" s="39"/>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1045" s="8"/>
+      <c r="A1045" s="39"/>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1046" s="8"/>
+      <c r="A1046" s="39"/>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1047" s="8"/>
+      <c r="A1047" s="39"/>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048" s="8"/>
+      <c r="A1048" s="39"/>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049" s="8"/>
+      <c r="A1049" s="39"/>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1050" s="8"/>
+      <c r="A1050" s="39"/>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051" s="8"/>
+      <c r="A1051" s="39"/>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052" s="8"/>
+      <c r="A1052" s="39"/>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" s="8"/>
+      <c r="A1053" s="39"/>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054" s="8"/>
+      <c r="A1054" s="39"/>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055" s="8"/>
+      <c r="A1055" s="39"/>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" s="8"/>
+      <c r="A1056" s="39"/>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" s="8"/>
+      <c r="A1057" s="39"/>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" s="8"/>
+      <c r="A1058" s="39"/>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" s="8"/>
+      <c r="A1059" s="39"/>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" s="8"/>
+      <c r="A1060" s="39"/>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" s="8"/>
+      <c r="A1061" s="39"/>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" s="8"/>
+      <c r="A1062" s="39"/>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" s="8"/>
+      <c r="A1063" s="39"/>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" s="8"/>
+      <c r="A1064" s="39"/>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" s="8"/>
+      <c r="A1065" s="39"/>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" s="8"/>
+      <c r="A1066" s="39"/>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" s="8"/>
+      <c r="A1067" s="39"/>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" s="8"/>
+      <c r="A1068" s="39"/>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" s="8"/>
+      <c r="A1069" s="39"/>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" s="8"/>
+      <c r="A1070" s="39"/>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" s="8"/>
+      <c r="A1071" s="39"/>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" s="8"/>
+      <c r="A1072" s="39"/>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" s="8"/>
+      <c r="A1073" s="39"/>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074" s="8"/>
+      <c r="A1074" s="39"/>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075" s="8"/>
+      <c r="A1075" s="39"/>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076" s="8"/>
+      <c r="A1076" s="39"/>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" s="8"/>
+      <c r="A1077" s="39"/>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" s="8"/>
+      <c r="A1078" s="39"/>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079" s="8"/>
+      <c r="A1079" s="39"/>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080" s="8"/>
+      <c r="A1080" s="39"/>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081" s="8"/>
+      <c r="A1081" s="39"/>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" s="8"/>
+      <c r="A1082" s="39"/>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" s="8"/>
+      <c r="A1083" s="39"/>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084" s="8"/>
+      <c r="A1084" s="39"/>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" s="8"/>
+      <c r="A1085" s="39"/>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" s="8"/>
+      <c r="A1086" s="39"/>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" s="8"/>
+      <c r="A1087" s="39"/>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" s="8"/>
+      <c r="A1088" s="39"/>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" s="8"/>
+      <c r="A1089" s="39"/>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" s="8"/>
+      <c r="A1090" s="39"/>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" s="8"/>
+      <c r="A1091" s="39"/>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" s="8"/>
+      <c r="A1092" s="39"/>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="8"/>
+      <c r="A1093" s="39"/>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="8"/>
+      <c r="A1094" s="39"/>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" s="8"/>
+      <c r="A1095" s="39"/>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" s="8"/>
+      <c r="A1096" s="39"/>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" s="8"/>
+      <c r="A1097" s="39"/>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" s="8"/>
+      <c r="A1098" s="39"/>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" s="8"/>
+      <c r="A1099" s="39"/>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" s="8"/>
+      <c r="A1100" s="39"/>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" s="8"/>
+      <c r="A1101" s="39"/>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" s="8"/>
+      <c r="A1102" s="39"/>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" s="8"/>
+      <c r="A1103" s="39"/>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" s="8"/>
+      <c r="A1104" s="39"/>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" s="8"/>
+      <c r="A1105" s="39"/>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" s="8"/>
+      <c r="A1106" s="39"/>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" s="8"/>
+      <c r="A1107" s="39"/>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" s="8"/>
+      <c r="A1108" s="39"/>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" s="8"/>
+      <c r="A1109" s="39"/>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" s="8"/>
+      <c r="A1110" s="39"/>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" s="8"/>
+      <c r="A1111" s="39"/>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" s="8"/>
+      <c r="A1112" s="39"/>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" s="8"/>
+      <c r="A1113" s="39"/>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" s="8"/>
+      <c r="A1114" s="39"/>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" s="8"/>
+      <c r="A1115" s="39"/>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" s="8"/>
+      <c r="A1116" s="39"/>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" s="8"/>
+      <c r="A1117" s="39"/>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1118" s="8"/>
+      <c r="A1118" s="39"/>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1119" s="8"/>
+      <c r="A1119" s="39"/>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1120" s="8"/>
+      <c r="A1120" s="39"/>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" s="8"/>
+      <c r="A1121" s="39"/>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1122" s="8"/>
+      <c r="A1122" s="39"/>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1123" s="8"/>
+      <c r="A1123" s="39"/>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1124" s="8"/>
+      <c r="A1124" s="39"/>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1125" s="8"/>
+      <c r="A1125" s="39"/>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1126" s="8"/>
+      <c r="A1126" s="39"/>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1127" s="8"/>
+      <c r="A1127" s="39"/>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1128" s="8"/>
+      <c r="A1128" s="39"/>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1129" s="8"/>
+      <c r="A1129" s="39"/>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1130" s="8"/>
+      <c r="A1130" s="39"/>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1131" s="8"/>
+      <c r="A1131" s="39"/>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1132" s="8"/>
+      <c r="A1132" s="39"/>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1133" s="8"/>
+      <c r="A1133" s="39"/>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1134" s="8"/>
+      <c r="A1134" s="39"/>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1135" s="8"/>
+      <c r="A1135" s="39"/>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1136" s="8"/>
+      <c r="A1136" s="39"/>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1137" s="8"/>
+      <c r="A1137" s="39"/>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1138" s="8"/>
+      <c r="A1138" s="39"/>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1139" s="8"/>
+      <c r="A1139" s="39"/>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1140" s="8"/>
+      <c r="A1140" s="39"/>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1141" s="8"/>
+      <c r="A1141" s="39"/>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1142" s="8"/>
+      <c r="A1142" s="39"/>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1143" s="8"/>
+      <c r="A1143" s="39"/>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1144" s="8"/>
+      <c r="A1144" s="39"/>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1145" s="8"/>
+      <c r="A1145" s="39"/>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1146" s="8"/>
+      <c r="A1146" s="39"/>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1147" s="8"/>
+      <c r="A1147" s="39"/>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1148" s="8"/>
+      <c r="A1148" s="39"/>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1149" s="8"/>
+      <c r="A1149" s="39"/>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1150" s="8"/>
+      <c r="A1150" s="39"/>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1151" s="8"/>
+      <c r="A1151" s="39"/>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1152" s="8"/>
+      <c r="A1152" s="39"/>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1153" s="8"/>
+      <c r="A1153" s="39"/>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1154" s="8"/>
+      <c r="A1154" s="39"/>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1155" s="8"/>
+      <c r="A1155" s="39"/>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1156" s="8"/>
+      <c r="A1156" s="39"/>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1157" s="8"/>
+      <c r="A1157" s="39"/>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1158" s="8"/>
+      <c r="A1158" s="39"/>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1159" s="8"/>
+      <c r="A1159" s="39"/>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1160" s="8"/>
+      <c r="A1160" s="39"/>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1161" s="8"/>
+      <c r="A1161" s="39"/>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1162" s="8"/>
+      <c r="A1162" s="39"/>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1163" s="8"/>
+      <c r="A1163" s="39"/>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1164" s="8"/>
+      <c r="A1164" s="39"/>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1165" s="8"/>
+      <c r="A1165" s="39"/>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1166" s="8"/>
+      <c r="A1166" s="39"/>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1167" s="8"/>
+      <c r="A1167" s="39"/>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1168" s="8"/>
+      <c r="A1168" s="39"/>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1169" s="8"/>
+      <c r="A1169" s="39"/>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1170" s="8"/>
+      <c r="A1170" s="39"/>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1171" s="8"/>
+      <c r="A1171" s="39"/>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1172" s="8"/>
+      <c r="A1172" s="39"/>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1173" s="8"/>
+      <c r="A1173" s="39"/>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1174" s="8"/>
+      <c r="A1174" s="39"/>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1175" s="8"/>
+      <c r="A1175" s="39"/>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1176" s="8"/>
+      <c r="A1176" s="39"/>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1177" s="8"/>
+      <c r="A1177" s="39"/>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1178" s="8"/>
+      <c r="A1178" s="39"/>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1179" s="8"/>
+      <c r="A1179" s="39"/>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1180" s="8"/>
+      <c r="A1180" s="39"/>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1181" s="8"/>
+      <c r="A1181" s="39"/>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1182" s="8"/>
+      <c r="A1182" s="39"/>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1183" s="8"/>
+      <c r="A1183" s="39"/>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1184" s="8"/>
+      <c r="A1184" s="39"/>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1185" s="8"/>
+      <c r="A1185" s="39"/>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1186" s="8"/>
+      <c r="A1186" s="39"/>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1187" s="8"/>
+      <c r="A1187" s="39"/>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1188" s="8"/>
+      <c r="A1188" s="39"/>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1189" s="8"/>
+      <c r="A1189" s="39"/>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1190" s="8"/>
+      <c r="A1190" s="39"/>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1191" s="8"/>
+      <c r="A1191" s="39"/>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1192" s="8"/>
+      <c r="A1192" s="39"/>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1193" s="8"/>
+      <c r="A1193" s="39"/>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1194" s="8"/>
+      <c r="A1194" s="39"/>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1195" s="8"/>
+      <c r="A1195" s="39"/>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1196" s="8"/>
+      <c r="A1196" s="39"/>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1197" s="8"/>
+      <c r="A1197" s="39"/>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1198" s="8"/>
+      <c r="A1198" s="39"/>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1199" s="8"/>
+      <c r="A1199" s="39"/>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1200" s="8"/>
+      <c r="A1200" s="39"/>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1201" s="8"/>
+      <c r="A1201" s="39"/>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1202" s="8"/>
+      <c r="A1202" s="39"/>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1203" s="8"/>
+      <c r="A1203" s="39"/>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1204" s="8"/>
+      <c r="A1204" s="39"/>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1205" s="8"/>
+      <c r="A1205" s="39"/>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1206" s="8"/>
+      <c r="A1206" s="39"/>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1207" s="8"/>
+      <c r="A1207" s="39"/>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1208" s="8"/>
+      <c r="A1208" s="39"/>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1209" s="8"/>
+      <c r="A1209" s="39"/>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1210" s="8"/>
+      <c r="A1210" s="39"/>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1211" s="8"/>
+      <c r="A1211" s="39"/>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1212" s="8"/>
+      <c r="A1212" s="39"/>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1213" s="8"/>
+      <c r="A1213" s="39"/>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1214" s="8"/>
+      <c r="A1214" s="39"/>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1215" s="8"/>
+      <c r="A1215" s="39"/>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1216" s="8"/>
+      <c r="A1216" s="39"/>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="8"/>
+      <c r="A1217" s="39"/>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1218" s="8"/>
+      <c r="A1218" s="39"/>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1219" s="8"/>
+      <c r="A1219" s="39"/>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1220" s="8"/>
+      <c r="A1220" s="39"/>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1221" s="8"/>
+      <c r="A1221" s="39"/>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1222" s="8"/>
+      <c r="A1222" s="39"/>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1223" s="8"/>
+      <c r="A1223" s="39"/>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1224" s="8"/>
+      <c r="A1224" s="39"/>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1225" s="8"/>
+      <c r="A1225" s="39"/>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1226" s="8"/>
+      <c r="A1226" s="39"/>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1227" s="8"/>
+      <c r="A1227" s="39"/>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1228" s="8"/>
+      <c r="A1228" s="39"/>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229" s="8"/>
+      <c r="A1229" s="39"/>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230" s="8"/>
+      <c r="A1230" s="39"/>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1231" s="8"/>
+      <c r="A1231" s="39"/>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1232" s="8"/>
+      <c r="A1232" s="39"/>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1233" s="8"/>
+      <c r="A1233" s="39"/>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1234" s="8"/>
+      <c r="A1234" s="39"/>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1235" s="8"/>
+      <c r="A1235" s="39"/>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1236" s="8"/>
+      <c r="A1236" s="39"/>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1237" s="8"/>
+      <c r="A1237" s="39"/>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1238" s="8"/>
+      <c r="A1238" s="39"/>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1239" s="8"/>
+      <c r="A1239" s="39"/>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1240" s="8"/>
+      <c r="A1240" s="39"/>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1241" s="8"/>
+      <c r="A1241" s="39"/>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1242" s="8"/>
+      <c r="A1242" s="39"/>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1243" s="8"/>
+      <c r="A1243" s="39"/>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1244" s="8"/>
+      <c r="A1244" s="39"/>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1245" s="8"/>
+      <c r="A1245" s="39"/>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1246" s="8"/>
+      <c r="A1246" s="39"/>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1247" s="8"/>
+      <c r="A1247" s="39"/>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1248" s="8"/>
+      <c r="A1248" s="39"/>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1249" s="8"/>
+      <c r="A1249" s="39"/>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1250" s="8"/>
+      <c r="A1250" s="39"/>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1251" s="8"/>
+      <c r="A1251" s="39"/>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1252" s="8"/>
+      <c r="A1252" s="39"/>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1253" s="8"/>
+      <c r="A1253" s="39"/>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1254" s="8"/>
+      <c r="A1254" s="39"/>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1255" s="8"/>
+      <c r="A1255" s="39"/>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1256" s="8"/>
+      <c r="A1256" s="39"/>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1257" s="8"/>
+      <c r="A1257" s="39"/>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1258" s="8"/>
+      <c r="A1258" s="39"/>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1259" s="8"/>
+      <c r="A1259" s="39"/>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1260" s="8"/>
+      <c r="A1260" s="39"/>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1261" s="8"/>
+      <c r="A1261" s="39"/>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1262" s="8"/>
+      <c r="A1262" s="39"/>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1263" s="8"/>
+      <c r="A1263" s="39"/>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1264" s="8"/>
+      <c r="A1264" s="39"/>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1265" s="8"/>
+      <c r="A1265" s="39"/>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1266" s="8"/>
+      <c r="A1266" s="39"/>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1267" s="8"/>
+      <c r="A1267" s="39"/>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1268" s="8"/>
+      <c r="A1268" s="39"/>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1269" s="8"/>
+      <c r="A1269" s="39"/>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1270" s="8"/>
+      <c r="A1270" s="39"/>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1271" s="8"/>
+      <c r="A1271" s="39"/>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1272" s="8"/>
+      <c r="A1272" s="39"/>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1273" s="8"/>
+      <c r="A1273" s="39"/>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1274" s="8"/>
+      <c r="A1274" s="39"/>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1275" s="8"/>
+      <c r="A1275" s="39"/>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1276" s="8"/>
+      <c r="A1276" s="39"/>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1277" s="8"/>
+      <c r="A1277" s="39"/>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1278" s="8"/>
+      <c r="A1278" s="39"/>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1279" s="8"/>
+      <c r="A1279" s="39"/>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1280" s="8"/>
+      <c r="A1280" s="39"/>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1281" s="8"/>
+      <c r="A1281" s="39"/>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1282" s="8"/>
+      <c r="A1282" s="39"/>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1283" s="8"/>
+      <c r="A1283" s="39"/>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1284" s="8"/>
+      <c r="A1284" s="39"/>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1285" s="8"/>
+      <c r="A1285" s="39"/>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1286" s="8"/>
+      <c r="A1286" s="39"/>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1287" s="8"/>
+      <c r="A1287" s="39"/>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1288" s="8"/>
+      <c r="A1288" s="39"/>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1289" s="8"/>
+      <c r="A1289" s="39"/>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1290" s="8"/>
+      <c r="A1290" s="39"/>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1291" s="8"/>
+      <c r="A1291" s="39"/>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1292" s="8"/>
+      <c r="A1292" s="39"/>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1293" s="8"/>
+      <c r="A1293" s="39"/>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1294" s="8"/>
+      <c r="A1294" s="39"/>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1295" s="8"/>
+      <c r="A1295" s="39"/>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1296" s="8"/>
+      <c r="A1296" s="39"/>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1297" s="8"/>
+      <c r="A1297" s="39"/>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1298" s="8"/>
+      <c r="A1298" s="39"/>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1299" s="8"/>
+      <c r="A1299" s="39"/>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1300" s="8"/>
+      <c r="A1300" s="39"/>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1301" s="8"/>
+      <c r="A1301" s="39"/>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1302" s="8"/>
+      <c r="A1302" s="39"/>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1303" s="8"/>
+      <c r="A1303" s="39"/>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1304" s="8"/>
+      <c r="A1304" s="39"/>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1305" s="8"/>
+      <c r="A1305" s="39"/>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1306" s="8"/>
+      <c r="A1306" s="39"/>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1307" s="8"/>
+      <c r="A1307" s="39"/>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1308" s="8"/>
+      <c r="A1308" s="39"/>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1309" s="8"/>
+      <c r="A1309" s="39"/>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1310" s="8"/>
+      <c r="A1310" s="39"/>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1311" s="8"/>
+      <c r="A1311" s="39"/>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1312" s="8"/>
+      <c r="A1312" s="39"/>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1313" s="8"/>
+      <c r="A1313" s="39"/>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1314" s="8"/>
+      <c r="A1314" s="39"/>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1315" s="8"/>
+      <c r="A1315" s="39"/>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1316" s="8"/>
+      <c r="A1316" s="39"/>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1317" s="8"/>
+      <c r="A1317" s="39"/>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1318" s="8"/>
+      <c r="A1318" s="39"/>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1319" s="8"/>
+      <c r="A1319" s="39"/>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1320" s="8"/>
+      <c r="A1320" s="39"/>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1321" s="8"/>
+      <c r="A1321" s="39"/>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1322" s="8"/>
+      <c r="A1322" s="39"/>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1323" s="8"/>
+      <c r="A1323" s="39"/>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1324" s="8"/>
+      <c r="A1324" s="39"/>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1325" s="8"/>
+      <c r="A1325" s="39"/>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1326" s="8"/>
+      <c r="A1326" s="39"/>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1327" s="8"/>
+      <c r="A1327" s="39"/>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1328" s="8"/>
+      <c r="A1328" s="39"/>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1329" s="8"/>
+      <c r="A1329" s="39"/>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1330" s="8"/>
+      <c r="A1330" s="39"/>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1331" s="8"/>
+      <c r="A1331" s="39"/>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1332" s="8"/>
+      <c r="A1332" s="39"/>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1333" s="8"/>
+      <c r="A1333" s="39"/>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1334" s="8"/>
+      <c r="A1334" s="39"/>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1335" s="8"/>
+      <c r="A1335" s="39"/>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1336" s="8"/>
+      <c r="A1336" s="39"/>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1337" s="8"/>
+      <c r="A1337" s="39"/>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1338" s="8"/>
+      <c r="A1338" s="39"/>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1339" s="8"/>
+      <c r="A1339" s="39"/>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1340" s="8"/>
+      <c r="A1340" s="39"/>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1341" s="8"/>
+      <c r="A1341" s="39"/>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1342" s="8"/>
+      <c r="A1342" s="39"/>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1343" s="8"/>
+      <c r="A1343" s="39"/>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1344" s="8"/>
+      <c r="A1344" s="39"/>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1345" s="8"/>
+      <c r="A1345" s="39"/>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1346" s="8"/>
+      <c r="A1346" s="39"/>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1347" s="8"/>
+      <c r="A1347" s="39"/>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1348" s="39"/>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1349" s="39"/>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1350" s="39"/>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1351" s="39"/>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1352" s="39"/>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1353" s="39"/>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1354" s="39"/>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1355" s="39"/>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1356" s="39"/>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1357" s="39"/>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1358" s="39"/>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1359" s="39"/>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1360" s="39"/>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1361" s="39"/>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1362" s="39"/>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1363" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
+    <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="BI1:BJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
